--- a/data/data_all.xlsx
+++ b/data/data_all.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -646,7 +646,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 1</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -730,7 +730,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 1</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -814,7 +814,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 1</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -898,7 +898,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 1</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -982,7 +982,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 1</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 1</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 1</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 1</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 4</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 7</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 1</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 1</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
@@ -6778,7 +6778,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
@@ -7870,7 +7870,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
@@ -8038,7 +8038,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
@@ -8122,7 +8122,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
@@ -8206,7 +8206,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
@@ -8290,7 +8290,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 5</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
@@ -8374,7 +8374,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
@@ -8794,7 +8794,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
@@ -9298,7 +9298,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
@@ -9382,7 +9382,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
@@ -9550,7 +9550,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
@@ -9634,7 +9634,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
@@ -9718,7 +9718,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
@@ -9802,7 +9802,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
@@ -9886,7 +9886,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
@@ -10138,7 +10138,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
@@ -10222,7 +10222,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
@@ -10306,7 +10306,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
@@ -10390,7 +10390,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
@@ -10558,7 +10558,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
@@ -10642,7 +10642,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
@@ -10810,7 +10810,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
@@ -10894,7 +10894,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
@@ -10978,7 +10978,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
@@ -11566,7 +11566,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
@@ -11650,7 +11650,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
@@ -11818,7 +11818,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
@@ -11902,7 +11902,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
@@ -12070,7 +12070,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
@@ -12154,7 +12154,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
@@ -12238,7 +12238,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
@@ -12322,7 +12322,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
@@ -12490,7 +12490,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
@@ -12574,7 +12574,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
@@ -12658,7 +12658,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
@@ -12742,7 +12742,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
@@ -12910,7 +12910,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
@@ -12994,7 +12994,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
@@ -13162,7 +13162,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
@@ -13330,7 +13330,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
@@ -13414,7 +13414,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
@@ -13498,7 +13498,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
@@ -13582,7 +13582,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
@@ -13666,7 +13666,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
@@ -13750,7 +13750,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
@@ -13834,7 +13834,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
@@ -13918,7 +13918,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
@@ -14002,7 +14002,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
@@ -14086,7 +14086,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
@@ -14170,7 +14170,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
@@ -14338,7 +14338,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
@@ -14422,7 +14422,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
@@ -14674,7 +14674,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
@@ -14842,7 +14842,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
@@ -14926,7 +14926,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
@@ -15010,7 +15010,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
@@ -15094,7 +15094,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
@@ -15262,7 +15262,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
@@ -15346,7 +15346,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
@@ -15430,7 +15430,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
@@ -15514,7 +15514,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
@@ -15598,7 +15598,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
@@ -15766,7 +15766,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
@@ -15850,7 +15850,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
@@ -15934,7 +15934,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
@@ -16018,7 +16018,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
@@ -16102,7 +16102,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
@@ -16186,7 +16186,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
@@ -16270,7 +16270,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
@@ -16354,7 +16354,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
@@ -16438,7 +16438,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
@@ -16606,7 +16606,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
@@ -16690,7 +16690,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D194" s="2" t="n">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
@@ -16858,7 +16858,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
@@ -16942,7 +16942,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D197" s="2" t="n">
@@ -17026,7 +17026,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
@@ -17194,7 +17194,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
@@ -17278,7 +17278,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
@@ -17362,7 +17362,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
@@ -17446,7 +17446,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
@@ -17530,7 +17530,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
@@ -17614,7 +17614,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
@@ -17698,7 +17698,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
@@ -17782,7 +17782,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 2</t>
         </is>
       </c>
       <c r="D207" s="2" t="n">
@@ -17866,7 +17866,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 10</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
@@ -17950,7 +17950,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 3</t>
         </is>
       </c>
       <c r="D209" s="2" t="n">
@@ -18034,7 +18034,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D210" s="2" t="n">
@@ -18118,7 +18118,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
@@ -18202,7 +18202,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D212" s="2" t="n">
@@ -18286,7 +18286,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D213" s="2" t="n">
@@ -18370,7 +18370,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D214" s="2" t="n">
@@ -18454,7 +18454,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 7</t>
         </is>
       </c>
       <c r="D215" s="2" t="n">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 7</t>
         </is>
       </c>
       <c r="D216" s="2" t="n">
@@ -18622,7 +18622,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 7</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
@@ -18706,7 +18706,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 7</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
@@ -18790,7 +18790,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 7</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
@@ -18874,7 +18874,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 7</t>
         </is>
       </c>
       <c r="D220" s="2" t="n">
@@ -18958,7 +18958,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Team 7</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
@@ -19042,7 +19042,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
@@ -19126,7 +19126,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 9</t>
         </is>
       </c>
       <c r="D223" s="2" t="n">
@@ -19210,7 +19210,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
@@ -19294,7 +19294,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D225" s="2" t="n">
@@ -19378,7 +19378,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D226" s="2" t="n">
@@ -19462,7 +19462,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
@@ -19546,7 +19546,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
@@ -19630,7 +19630,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D229" s="2" t="n">
@@ -19714,7 +19714,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D230" s="2" t="n">
@@ -19798,7 +19798,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D231" s="2" t="n">
@@ -19882,7 +19882,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D233" s="2" t="n">
@@ -20050,7 +20050,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
@@ -20134,7 +20134,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D235" s="2" t="n">
@@ -20218,7 +20218,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D236" s="2" t="n">
@@ -20302,7 +20302,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D237" s="2" t="n">
@@ -20386,7 +20386,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
@@ -20470,7 +20470,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
@@ -20554,7 +20554,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D240" s="2" t="n">
@@ -20638,7 +20638,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
@@ -20722,7 +20722,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
@@ -20806,7 +20806,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
@@ -20890,7 +20890,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D244" s="2" t="n">
@@ -20974,7 +20974,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D245" s="2" t="n">
@@ -21058,7 +21058,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
@@ -21142,7 +21142,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D247" s="2" t="n">
@@ -21226,7 +21226,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D248" s="2" t="n">
@@ -21310,7 +21310,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D250" s="2" t="n">
@@ -21478,7 +21478,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
@@ -21562,7 +21562,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D252" s="2" t="n">
@@ -21646,7 +21646,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
@@ -21730,7 +21730,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D254" s="2" t="n">
@@ -21814,7 +21814,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D255" s="2" t="n">
@@ -21898,7 +21898,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D256" s="2" t="n">
@@ -21982,7 +21982,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D257" s="2" t="n">
@@ -22066,7 +22066,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D258" s="2" t="n">
@@ -22150,7 +22150,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D259" s="2" t="n">
@@ -22234,7 +22234,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
@@ -22318,7 +22318,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D261" s="2" t="n">
@@ -22402,7 +22402,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Team 6</t>
         </is>
       </c>
       <c r="D262" s="2" t="n">
@@ -22486,7 +22486,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 10</t>
         </is>
       </c>
       <c r="D263" s="2" t="n">
@@ -22570,7 +22570,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>no team</t>
+          <t>Team 1</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">

--- a/data/data_all.xlsx
+++ b/data/data_all.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,90 +545,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>/activities/8212786472</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Andrew CD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Team 4</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>44910</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Cycling</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0:44:17</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>44</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20</v>
-      </c>
-      <c r="N2" t="n">
-        <v>29.15</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>29.15</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Cycling</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/data_all.xlsx
+++ b/data/data_all.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +549,6558 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>/activities/8226374782</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Aarzoo Tandon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>The Gladeaters</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44904</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>00:05:41</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>/activities/8226029359</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Aarzoo Tandon</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>The Gladeaters</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>44904</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>00:30:00</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>30</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N3" t="n">
+        <v>30</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>30</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Yoga</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/activities/8218342310</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Abhishek Sharma</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>00:05:09</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N4" t="n">
+        <v>20</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>40</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Elliptical</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/activities/8218342174</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abhishek Sharma</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>00:08:50</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>20</v>
+      </c>
+      <c r="N5" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>/activities/8222533782</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abhishek Sharma</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>00:15:10</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="M6" t="n">
+        <v>20</v>
+      </c>
+      <c r="N6" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/activities/8224620834</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Abhishek Sharma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>00:30:11</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>30</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/activities/8218342136</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Abhishek Sharma</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>20</v>
+      </c>
+      <c r="N8" t="n">
+        <v>20</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>20</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Workout</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/activities/8213151540</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Abhishek Singh</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pace Makers</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>00:38:30</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>38</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>30</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Workout</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>/activities/8223985202</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Abhishek Singh</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pace Makers</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>01:00:00</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>20</v>
+      </c>
+      <c r="M10" t="n">
+        <v>20</v>
+      </c>
+      <c r="N10" t="n">
+        <v>40</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>40</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Workout</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>/activities/8218849595</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aditya Aggarwal</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Team 2</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44898</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>00:20:47</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>9.200000000000001</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20</v>
+      </c>
+      <c r="N11" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>58.40000000000001</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>/activities/8218849711</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aditya Aggarwal</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Team 2</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>00:28:15</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>28</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20</v>
+      </c>
+      <c r="N12" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>/activities/8218849740</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aditya Aggarwal</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Team 2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>00:26:47</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>26</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>/activities/8218849777</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Aditya Aggarwal</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Team 2</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>00:38:02</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>38</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M14" t="n">
+        <v>20</v>
+      </c>
+      <c r="N14" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>/activities/8221935442</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Aditya Aggarwal</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Team 2</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>00:38:36</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>38</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>20</v>
+      </c>
+      <c r="N15" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4</v>
+      </c>
+      <c r="U15" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>/activities/8212579495</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Allen Mills</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Team 6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>00:00:58</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="M16" t="n">
+        <v>20</v>
+      </c>
+      <c r="N16" t="n">
+        <v>61.05</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>61.05</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>/activities/8217556263</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Allen Mills</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Team 6</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>01:19:00</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>19</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="M17" t="n">
+        <v>20</v>
+      </c>
+      <c r="N17" t="n">
+        <v>51.95</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>51.95</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>/activities/8208013953</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Andrew CD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Flab-u-less</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cycling</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>03:13:00</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>13</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="M18" t="n">
+        <v>20</v>
+      </c>
+      <c r="N18" t="n">
+        <v>52.54</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>105.08</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Cycling</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>/activities/8212786472</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Andrew CD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Flab-u-less</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cycling</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>00:44:17</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>44</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="M19" t="n">
+        <v>20</v>
+      </c>
+      <c r="N19" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Cycling</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>/activities/8226082284</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Andrew CD</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Flab-u-less</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cycling</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>02:46:00</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>46</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="M20" t="n">
+        <v>20</v>
+      </c>
+      <c r="N20" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Cycling</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>/activities/8203758708</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Andrew CD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Flab-u-less</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44898</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>00:21:57</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>21</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="M21" t="n">
+        <v>20</v>
+      </c>
+      <c r="N21" t="n">
+        <v>44.75</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>/activities/8215422319</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Andrew CD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Flab-u-less</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>00:23:18</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>23</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="M22" t="n">
+        <v>20</v>
+      </c>
+      <c r="N22" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>9.940000000000001</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>/activities/8221330723</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Andrew CD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Flab-u-less</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>00:22:36</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>22</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>9.549999999999999</v>
+      </c>
+      <c r="M23" t="n">
+        <v>20</v>
+      </c>
+      <c r="N23" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2</v>
+      </c>
+      <c r="U23" t="n">
+        <v>9.940000000000001</v>
+      </c>
+      <c r="V23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>/activities/8224699981</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Andrew CD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Flab-u-less</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>00:25:35</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>25</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3</v>
+      </c>
+      <c r="U24" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>/activities/8216653852</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Brian Fitzgerald</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Flab-u-less</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>00:10:04</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>20</v>
+      </c>
+      <c r="N25" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>/activities/8224865015</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Brian Fitzgerald</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Flab-u-less</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>00:52:44</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>52</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>20</v>
+      </c>
+      <c r="N26" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>/activities/8221165958</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Elena Teytelman</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Team 6</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>00:56:34</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>56</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>10</v>
+      </c>
+      <c r="M27" t="n">
+        <v>20</v>
+      </c>
+      <c r="N27" t="n">
+        <v>30</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>30</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Workout</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>/activities/8225619972</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Elena Teytelman</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Team 6</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>00:59:31</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>59</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" t="n">
+        <v>20</v>
+      </c>
+      <c r="N28" t="n">
+        <v>30</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>30</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Workout</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>/activities/8219215875</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Emily Tibbens</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>00:48:31</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>48</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>20</v>
+      </c>
+      <c r="N29" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>/activities/8223451110</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fernanda Mattei</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Pace Makers</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>00:50:00</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>50</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>10</v>
+      </c>
+      <c r="M30" t="n">
+        <v>20</v>
+      </c>
+      <c r="N30" t="n">
+        <v>30</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>30</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Crossfit</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>/activities/8219848623</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ivana Kovacova</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Unstoppable 9</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>00:48:07</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>48</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="M31" t="n">
+        <v>20</v>
+      </c>
+      <c r="N31" t="n">
+        <v>52.85</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>52.85</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>/activities/8222202952</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ivana Kovacova</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Unstoppable 9</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>01:15:00</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>15</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="M32" t="n">
+        <v>20</v>
+      </c>
+      <c r="N32" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="V32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>/activities/8205164889</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ivana Kovacova</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Unstoppable 9</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>00:41:00</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>41</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>10</v>
+      </c>
+      <c r="M33" t="n">
+        <v>20</v>
+      </c>
+      <c r="N33" t="n">
+        <v>30</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>60</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Weight Training</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>/activities/8200981642</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ivana Kovacova</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Unstoppable 9</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>44898</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>01:03:00</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>20</v>
+      </c>
+      <c r="M34" t="n">
+        <v>20</v>
+      </c>
+      <c r="N34" t="n">
+        <v>40</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>80</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>/activities/8204941953</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ivana Kovacova</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Unstoppable 9</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>00:10:28</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>10</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="V35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>/activities/8203616524</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Jesse Williams</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Team 2</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>44898</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>00:30:06</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>30</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="M36" t="n">
+        <v>20</v>
+      </c>
+      <c r="N36" t="n">
+        <v>52.45</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>/activities/8208562737</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jesse Williams</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Team 2</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>00:24:43</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>24</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>20</v>
+      </c>
+      <c r="N37" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="V37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>/activities/8211473579</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Jesse Williams</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Team 2</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>00:30:08</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>30</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="M38" t="n">
+        <v>20</v>
+      </c>
+      <c r="N38" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="V38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>/activities/8215941778</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Jesse Williams</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Team 2</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>00:34:53</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>34</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>20</v>
+      </c>
+      <c r="N39" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3</v>
+      </c>
+      <c r="U39" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="V39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>/activities/8220296174</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Jesse Williams</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Team 2</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>00:30:08</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>30</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="M40" t="n">
+        <v>20</v>
+      </c>
+      <c r="N40" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="T40" t="n">
+        <v>4</v>
+      </c>
+      <c r="U40" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="V40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>/activities/8224557211</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Jesse Williams</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Team 2</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>00:25:47</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>25</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="M41" t="n">
+        <v>20</v>
+      </c>
+      <c r="N41" t="n">
+        <v>45.55</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>45.55</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S41" t="n">
+        <v>38.84</v>
+      </c>
+      <c r="T41" t="n">
+        <v>5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="V41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>/activities/8203103588</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Jose Martinez</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44898</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Cycling</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>02:01:00</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="M42" t="n">
+        <v>20</v>
+      </c>
+      <c r="N42" t="n">
+        <v>49.23</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>98.46000000000001</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Cycling</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>/activities/8206926988</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Jose Martinez</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>44898</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>00:16:24</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>16</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S43" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>/activities/8207428231</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Jose Martinez</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>00:37:59</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>37</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="M44" t="n">
+        <v>20</v>
+      </c>
+      <c r="N44" t="n">
+        <v>57.25</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>/activities/8212738393</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Jose Martinez</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>00:56:08</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>56</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>20</v>
+      </c>
+      <c r="N45" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S45" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2</v>
+      </c>
+      <c r="U45" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="V45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>/activities/8221536275</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Jose Martinez</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>00:25:57</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>25</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>20</v>
+      </c>
+      <c r="N46" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S46" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3</v>
+      </c>
+      <c r="U46" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="V46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>/activities/8221536522</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Jose Martinez</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>00:33:45</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>33</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="M47" t="n">
+        <v>20</v>
+      </c>
+      <c r="N47" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="T47" t="n">
+        <v>4</v>
+      </c>
+      <c r="U47" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="V47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>/activities/8200137058</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Juraj Mečír</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Fit don't Quit</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>44898</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>00:26:43</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>26</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="M48" t="n">
+        <v>20</v>
+      </c>
+      <c r="N48" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>/activities/8204697175</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Juraj Mečír</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Fit don't Quit</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>00:42:07</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>42</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="M49" t="n">
+        <v>20</v>
+      </c>
+      <c r="N49" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S49" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="V49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>/activities/8218005923</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Juraj Mečír</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Fit don't Quit</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>00:29:30</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>29</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>25</v>
+      </c>
+      <c r="M50" t="n">
+        <v>20</v>
+      </c>
+      <c r="N50" t="n">
+        <v>45</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>45</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2</v>
+      </c>
+      <c r="U50" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="V50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>/activities/8211511285</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Juraj Mečír</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Fit don't Quit</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>01:31:00</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>31</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>30</v>
+      </c>
+      <c r="M51" t="n">
+        <v>20</v>
+      </c>
+      <c r="N51" t="n">
+        <v>50</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>50</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Weight Training</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>/activities/8220301069</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Juraj Mečír</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Fit don't Quit</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>01:21:00</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>21</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>20</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>20</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>20</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Weight Training</t>
+        </is>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>/activities/8200959370</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Madhav Parashar</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>The Gladeaters</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>44898</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Cycling</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>39.36</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>01:35:00</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>35</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>39.36</v>
+      </c>
+      <c r="M53" t="n">
+        <v>20</v>
+      </c>
+      <c r="N53" t="n">
+        <v>59.36</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>118.72</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Cycling</t>
+        </is>
+      </c>
+      <c r="S53" t="n">
+        <v>39.36</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>/activities/8209137192</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Madhav Parashar</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>The Gladeaters</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cycling</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>00:50:08</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>50</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="M54" t="n">
+        <v>20</v>
+      </c>
+      <c r="N54" t="n">
+        <v>37.93</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>37.93</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Cycling</t>
+        </is>
+      </c>
+      <c r="S54" t="n">
+        <v>57.29</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
+        <v>39.36</v>
+      </c>
+      <c r="V54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>/activities/8208795591</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Manoj M</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Team 2</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>00:18:22</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>18</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M55" t="n">
+        <v>20</v>
+      </c>
+      <c r="N55" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>/activities/8212830994</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Manoj M</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Team 2</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>00:14:11</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>14</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M56" t="n">
+        <v>20</v>
+      </c>
+      <c r="N56" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S56" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>/activities/8221263892</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Marco Martins</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Unstoppable 9</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>00:45:46</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>45</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="M57" t="n">
+        <v>20</v>
+      </c>
+      <c r="N57" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S57" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>/activities/8221268682</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Nealie Glasser</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>44898</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>00:17:10</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>17</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="M58" t="n">
+        <v>20</v>
+      </c>
+      <c r="N58" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S58" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>/activities/8225965325</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nealie Glasser</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Swim</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.195</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>01:00:00</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="M59" t="n">
+        <v>20</v>
+      </c>
+      <c r="N59" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Swim</t>
+        </is>
+      </c>
+      <c r="S59" t="n">
+        <v>2.195</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>/activities/8222004700</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nealie Glasser</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>00:45:00</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>45</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>10</v>
+      </c>
+      <c r="M60" t="n">
+        <v>20</v>
+      </c>
+      <c r="N60" t="n">
+        <v>30</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>30</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Weight Training</t>
+        </is>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>/activities/8201545035</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Rafael Fraga Mohr</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Team 2</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>44898</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>00:32:58</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>32</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="M61" t="n">
+        <v>20</v>
+      </c>
+      <c r="N61" t="n">
+        <v>46.75</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S61" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>/activities/8223336890</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Rahul Roy Choudhury</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>The Gladeaters</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>02:00:00</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>40</v>
+      </c>
+      <c r="M62" t="n">
+        <v>20</v>
+      </c>
+      <c r="N62" t="n">
+        <v>60</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>60</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Workout</t>
+        </is>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>/activities/8204213352</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Renoy Zachariah</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Team 6</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>00:43:19</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>43</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>20</v>
+      </c>
+      <c r="M63" t="n">
+        <v>20</v>
+      </c>
+      <c r="N63" t="n">
+        <v>40</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>80</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>/activities/8213001710</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Renoy Zachariah</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Team 6</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>00:15:14</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>15</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>8.149999999999999</v>
+      </c>
+      <c r="M64" t="n">
+        <v>20</v>
+      </c>
+      <c r="N64" t="n">
+        <v>28.15</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>28.15</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S64" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>/activities/8221809408</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Renoy Zachariah</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Team 6</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>00:21:53</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>21</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="M65" t="n">
+        <v>20</v>
+      </c>
+      <c r="N65" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S65" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2</v>
+      </c>
+      <c r="U65" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="V65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>/activities/8223813969</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Sandeep Malhotra</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Fit don't Quit</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>00:18:46</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>18</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="M66" t="n">
+        <v>20</v>
+      </c>
+      <c r="N66" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S66" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>/activities/8204424538</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Sanjay K</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>01:48:00</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>48</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="M67" t="n">
+        <v>20</v>
+      </c>
+      <c r="N67" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S67" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>/activities/8222074466</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Sanjay K</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>The Pokemons</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>4</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>01:01:00</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>20</v>
+      </c>
+      <c r="N68" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S68" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="V68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>/activities/8208970853</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Satish Patil</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Fit don't Quit</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>44898</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Swim</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>00:31:08</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>31</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>40</v>
+      </c>
+      <c r="M69" t="n">
+        <v>20</v>
+      </c>
+      <c r="N69" t="n">
+        <v>60</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>120</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Swim</t>
+        </is>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>/activities/8225955960</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Shailesh abecedarian</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Team 6</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>00:53:25</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>53</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S70" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>/activities/8225955974</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Shailesh abecedarian</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Team 6</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>01:04:00</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>102.95</v>
+      </c>
+      <c r="M71" t="n">
+        <v>20</v>
+      </c>
+      <c r="N71" t="n">
+        <v>122.95</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2X</t>
+        </is>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>245.9</v>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S71" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1</v>
+      </c>
+      <c r="U71" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="V71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>/activities/8225956100</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Shailesh abecedarian</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Team 6</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>44904</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>5</v>
+      </c>
+      <c r="G72" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>01:06:00</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>6</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>65.05</v>
+      </c>
+      <c r="M72" t="n">
+        <v>20</v>
+      </c>
+      <c r="N72" t="n">
+        <v>85.05</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>85.05</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S72" t="n">
+        <v>40.16</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2</v>
+      </c>
+      <c r="U72" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="V72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>/activities/8225956115</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Shailesh abecedarian</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Team 6</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>44904</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>00:17:18</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>17</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>11</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>11</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>11</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S73" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="T73" t="n">
+        <v>3</v>
+      </c>
+      <c r="U73" t="n">
+        <v>40.16</v>
+      </c>
+      <c r="V73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>/activities/8225018086</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Simon Talapa</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>The Gladeaters</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Swim</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>01:00:00</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>60</v>
+      </c>
+      <c r="M74" t="n">
+        <v>20</v>
+      </c>
+      <c r="N74" t="n">
+        <v>80</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>80</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Swim</t>
+        </is>
+      </c>
+      <c r="S74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>/activities/8223694832</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Sowjanya Sowji</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Flab-u-less</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>30</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>30</v>
+      </c>
+      <c r="M75" t="n">
+        <v>20</v>
+      </c>
+      <c r="N75" t="n">
+        <v>50</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>50</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Workout</t>
+        </is>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>/activities/8226184802</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Sowjanya Sowji</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Flab-u-less</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>01:30:00</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>30</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>30</v>
+      </c>
+      <c r="M76" t="n">
+        <v>20</v>
+      </c>
+      <c r="N76" t="n">
+        <v>50</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>50</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Workout</t>
+        </is>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>/activities/8226097401</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Subramita Dash</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Team 6</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>44904</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>00:22:45</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>22</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="M77" t="n">
+        <v>20</v>
+      </c>
+      <c r="N77" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S77" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>/activities/8217262296</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>tinku sand</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Pace Makers</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>92.06999999999999</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>23:55:00</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>23</v>
+      </c>
+      <c r="J78" t="n">
+        <v>55</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>460.35</v>
+      </c>
+      <c r="M78" t="n">
+        <v>20</v>
+      </c>
+      <c r="N78" t="n">
+        <v>480.35</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>480.35</v>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S78" t="n">
+        <v>92.06999999999999</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>/activities/8217319341</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>tinku sand</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Pace Makers</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>00:15:20</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>15</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>9</v>
+      </c>
+      <c r="M79" t="n">
+        <v>20</v>
+      </c>
+      <c r="N79" t="n">
+        <v>29</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>29</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S79" t="n">
+        <v>93.86999999999999</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1</v>
+      </c>
+      <c r="U79" t="n">
+        <v>92.06999999999999</v>
+      </c>
+      <c r="V79" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/data_all.xlsx
+++ b/data/data_all.xlsx
@@ -1,37 +1,342 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="98">
+  <si>
+    <t>Activity_ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>duration_hours</t>
+  </si>
+  <si>
+    <t>duration_minutes</t>
+  </si>
+  <si>
+    <t>Day_of_week</t>
+  </si>
+  <si>
+    <t>Activity_points</t>
+  </si>
+  <si>
+    <t>Daily_points</t>
+  </si>
+  <si>
+    <t>Total_points</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Comeback</t>
+  </si>
+  <si>
+    <t>Total_points_with_bonus</t>
+  </si>
+  <si>
+    <t>activity_for_points</t>
+  </si>
+  <si>
+    <t>Sum_of_kms</t>
+  </si>
+  <si>
+    <t>count_of_activities</t>
+  </si>
+  <si>
+    <t>previous_km_sum</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>/activities/8229579800</t>
+  </si>
+  <si>
+    <t>/activities/8230265050</t>
+  </si>
+  <si>
+    <t>/activities/8230187565</t>
+  </si>
+  <si>
+    <t>/activities/8229848314</t>
+  </si>
+  <si>
+    <t>/activities/8230050449</t>
+  </si>
+  <si>
+    <t>/activities/8229719660</t>
+  </si>
+  <si>
+    <t>/activities/8230340322</t>
+  </si>
+  <si>
+    <t>/activities/8230079793</t>
+  </si>
+  <si>
+    <t>/activities/8229707266</t>
+  </si>
+  <si>
+    <t>/activities/8230045262</t>
+  </si>
+  <si>
+    <t>/activities/8230114744</t>
+  </si>
+  <si>
+    <t>/activities/8229774689</t>
+  </si>
+  <si>
+    <t>/activities/8229780695</t>
+  </si>
+  <si>
+    <t>/activities/8229762382</t>
+  </si>
+  <si>
+    <t>/activities/8229857694</t>
+  </si>
+  <si>
+    <t>/activities/8229859266</t>
+  </si>
+  <si>
+    <t>/activities/8230253019</t>
+  </si>
+  <si>
+    <t>/activities/8229658114</t>
+  </si>
+  <si>
+    <t>/activities/8229812790</t>
+  </si>
+  <si>
+    <t>/activities/8230144451</t>
+  </si>
+  <si>
+    <t>/activities/8229755838</t>
+  </si>
+  <si>
+    <t>Aarzoo Tandon</t>
+  </si>
+  <si>
+    <t>Abhishek Sharma</t>
+  </si>
+  <si>
+    <t>Abhishek Singh</t>
+  </si>
+  <si>
+    <t>Ankit Agarwal</t>
+  </si>
+  <si>
+    <t>Ivana Kovacova</t>
+  </si>
+  <si>
+    <t>Juraj Mečír</t>
+  </si>
+  <si>
+    <t>Karthik Gunda</t>
+  </si>
+  <si>
+    <t>Khushboo Mehrotra</t>
+  </si>
+  <si>
+    <t>Madhav Parashar</t>
+  </si>
+  <si>
+    <t>RAVINDER SINGH BISHT</t>
+  </si>
+  <si>
+    <t>Rajat Sadanand</t>
+  </si>
+  <si>
+    <t>Renoy Zachariah</t>
+  </si>
+  <si>
+    <t>Sandeep Malhotra</t>
+  </si>
+  <si>
+    <t>Sanjay K</t>
+  </si>
+  <si>
+    <t>Shailesh abecedarian</t>
+  </si>
+  <si>
+    <t>Shreeja Verma</t>
+  </si>
+  <si>
+    <t>Subramita Dash</t>
+  </si>
+  <si>
+    <t>The Gladeaters</t>
+  </si>
+  <si>
+    <t>The Pokemons</t>
+  </si>
+  <si>
+    <t>Pace Makers</t>
+  </si>
+  <si>
+    <t>Team 8</t>
+  </si>
+  <si>
+    <t>Unstoppable 9</t>
+  </si>
+  <si>
+    <t>Fit don't Quit</t>
+  </si>
+  <si>
+    <t>Flab-u-less!</t>
+  </si>
+  <si>
+    <t>Team 6</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Cycling</t>
+  </si>
+  <si>
+    <t>Swim</t>
+  </si>
+  <si>
+    <t>00:35:00</t>
+  </si>
+  <si>
+    <t>00:22:54</t>
+  </si>
+  <si>
+    <t>00:29:09</t>
+  </si>
+  <si>
+    <t>00:46:40</t>
+  </si>
+  <si>
+    <t>00:05:34</t>
+  </si>
+  <si>
+    <t>00:13:59</t>
+  </si>
+  <si>
+    <t>00:25:14</t>
+  </si>
+  <si>
+    <t>01:38:00</t>
+  </si>
+  <si>
+    <t>01:40:00</t>
+  </si>
+  <si>
+    <t>01:05:00</t>
+  </si>
+  <si>
+    <t>01:12:00</t>
+  </si>
+  <si>
+    <t>00:45:57</t>
+  </si>
+  <si>
+    <t>00:25:00</t>
+  </si>
+  <si>
+    <t>01:08:00</t>
+  </si>
+  <si>
+    <t>00:40:42</t>
+  </si>
+  <si>
+    <t>00:30:00</t>
+  </si>
+  <si>
+    <t>00:35:37</t>
+  </si>
+  <si>
+    <t>01:10:00</t>
+  </si>
+  <si>
+    <t>01:58:00</t>
+  </si>
+  <si>
+    <t>00:35:49</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>3X</t>
+  </si>
+  <si>
+    <t>Yoga</t>
+  </si>
+  <si>
+    <t>Run/Walk</t>
+  </si>
+  <si>
+    <t>Workout</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +351,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,132 +668,1510 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:V1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Activity_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>duration_hours</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>duration_minutes</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Day_of_week</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Activity_points</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Daily_points</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_points</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Bonus</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Comeback</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Total_points_with_bonus</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>activity_for_points</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Sum_of_kms</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>count_of_activities</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>previous_km_sum</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Milestone</t>
-        </is>
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>90</v>
+      </c>
+      <c r="R2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>5.03</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4">
+        <v>25.15</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>45.15000000000001</v>
+      </c>
+      <c r="O4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>135.45</v>
+      </c>
+      <c r="R4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S4">
+        <v>7.03</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>90</v>
+      </c>
+      <c r="R5" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6">
+        <v>2.18</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2.18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>6.540000000000001</v>
+      </c>
+      <c r="R6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6">
+        <v>2.18</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1.23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7">
+        <v>6.15</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>26.15</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>78.44999999999999</v>
+      </c>
+      <c r="R7" t="s">
+        <v>96</v>
+      </c>
+      <c r="S7">
+        <v>1.23</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8">
+        <v>32</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>156</v>
+      </c>
+      <c r="R8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8">
+        <v>0.8</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>15.02</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>285.3</v>
+      </c>
+      <c r="R9" t="s">
+        <v>96</v>
+      </c>
+      <c r="S9">
+        <v>15.02</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10">
+        <v>55</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>75</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>225</v>
+      </c>
+      <c r="R10" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10">
+        <v>11</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>11.02</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11">
+        <v>55.09999999999999</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>225.3</v>
+      </c>
+      <c r="R11" t="s">
+        <v>96</v>
+      </c>
+      <c r="S11">
+        <v>11.02</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>5.62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12">
+        <v>28.1</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>48.1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>144.3</v>
+      </c>
+      <c r="R12" t="s">
+        <v>96</v>
+      </c>
+      <c r="S12">
+        <v>5.62</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>4.01</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13">
+        <v>20.05</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="N13">
+        <v>40.05</v>
+      </c>
+      <c r="O13" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>120.15</v>
+      </c>
+      <c r="R13" t="s">
+        <v>96</v>
+      </c>
+      <c r="S13">
+        <v>4.01</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>30</v>
+      </c>
+      <c r="O14" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>90</v>
+      </c>
+      <c r="R14" t="s">
+        <v>96</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>6.78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15">
+        <v>33.9</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>53.9</v>
+      </c>
+      <c r="O15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>161.7</v>
+      </c>
+      <c r="R15" t="s">
+        <v>96</v>
+      </c>
+      <c r="S15">
+        <v>6.78</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>4.16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16">
+        <v>20.8</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>40.8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>122.4</v>
+      </c>
+      <c r="R16" t="s">
+        <v>96</v>
+      </c>
+      <c r="S16">
+        <v>4.16</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="O17" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>30</v>
+      </c>
+      <c r="R17" t="s">
+        <v>95</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>3.33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>35</v>
+      </c>
+      <c r="K18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18">
+        <v>16.65</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>16.65</v>
+      </c>
+      <c r="O18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>49.95</v>
+      </c>
+      <c r="R18" t="s">
+        <v>96</v>
+      </c>
+      <c r="S18">
+        <v>3.33</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>5.6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19">
+        <v>28</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
+      <c r="N19">
+        <v>48</v>
+      </c>
+      <c r="O19" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>144</v>
+      </c>
+      <c r="R19" t="s">
+        <v>96</v>
+      </c>
+      <c r="S19">
+        <v>8.93</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>3.33</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>16.01</v>
+      </c>
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>58</v>
+      </c>
+      <c r="K20" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20">
+        <v>80.05000000000001</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>100.05</v>
+      </c>
+      <c r="O20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>300.15</v>
+      </c>
+      <c r="R20" t="s">
+        <v>96</v>
+      </c>
+      <c r="S20">
+        <v>16.01</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>30</v>
+      </c>
+      <c r="O21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>90</v>
+      </c>
+      <c r="R21" t="s">
+        <v>96</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2.75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>35</v>
+      </c>
+      <c r="K22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22">
+        <v>13.75</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>33.75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>101.25</v>
+      </c>
+      <c r="R22" t="s">
+        <v>96</v>
+      </c>
+      <c r="S22">
+        <v>2.75</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/data_all.xlsx
+++ b/data/data_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="131">
   <si>
     <t>Activity_ID</t>
   </si>
@@ -82,9 +82,15 @@
     <t>Milestone</t>
   </si>
   <si>
+    <t>/activities/8231298176</t>
+  </si>
+  <si>
     <t>/activities/8229579800</t>
   </si>
   <si>
+    <t>/activities/8231511675</t>
+  </si>
+  <si>
     <t>/activities/8230265050</t>
   </si>
   <si>
@@ -94,27 +100,51 @@
     <t>/activities/8229848314</t>
   </si>
   <si>
-    <t>/activities/8230050449</t>
-  </si>
-  <si>
     <t>/activities/8229719660</t>
   </si>
   <si>
+    <t>/activities/8231197041</t>
+  </si>
+  <si>
+    <t>/activities/8231125629</t>
+  </si>
+  <si>
+    <t>/activities/8230766273</t>
+  </si>
+  <si>
+    <t>/activities/8231631411</t>
+  </si>
+  <si>
+    <t>/activities/8231359133</t>
+  </si>
+  <si>
     <t>/activities/8230340322</t>
   </si>
   <si>
+    <t>/activities/8231539945</t>
+  </si>
+  <si>
     <t>/activities/8230079793</t>
   </si>
   <si>
+    <t>/activities/8230794399</t>
+  </si>
+  <si>
     <t>/activities/8229707266</t>
   </si>
   <si>
+    <t>/activities/8231082181</t>
+  </si>
+  <si>
     <t>/activities/8230045262</t>
   </si>
   <si>
     <t>/activities/8230114744</t>
   </si>
   <si>
+    <t>/activities/8231547299</t>
+  </si>
+  <si>
     <t>/activities/8229774689</t>
   </si>
   <si>
@@ -124,12 +154,12 @@
     <t>/activities/8229762382</t>
   </si>
   <si>
+    <t>/activities/8231508220</t>
+  </si>
+  <si>
     <t>/activities/8229857694</t>
   </si>
   <si>
-    <t>/activities/8229859266</t>
-  </si>
-  <si>
     <t>/activities/8230253019</t>
   </si>
   <si>
@@ -145,9 +175,18 @@
     <t>/activities/8229755838</t>
   </si>
   <si>
+    <t>/activities/8231475063</t>
+  </si>
+  <si>
+    <t>/activities/8231623414</t>
+  </si>
+  <si>
     <t>Aarzoo Tandon</t>
   </si>
   <si>
+    <t>Aastha Banda</t>
+  </si>
+  <si>
     <t>Abhishek Sharma</t>
   </si>
   <si>
@@ -157,9 +196,21 @@
     <t>Ankit Agarwal</t>
   </si>
   <si>
+    <t>Ankit Talele</t>
+  </si>
+  <si>
+    <t>DIVYA TALUR</t>
+  </si>
+  <si>
+    <t>Fernanda Mattei</t>
+  </si>
+  <si>
     <t>Ivana Kovacova</t>
   </si>
   <si>
+    <t>Joyce Miyazato</t>
+  </si>
+  <si>
     <t>Juraj Mečír</t>
   </si>
   <si>
@@ -172,6 +223,9 @@
     <t>Madhav Parashar</t>
   </si>
   <si>
+    <t>Nikhitha Vegi</t>
+  </si>
+  <si>
     <t>RAVINDER SINGH BISHT</t>
   </si>
   <si>
@@ -196,9 +250,18 @@
     <t>Subramita Dash</t>
   </si>
   <si>
+    <t>Suparna Lala</t>
+  </si>
+  <si>
+    <t>tinku sand</t>
+  </si>
+  <si>
     <t>The Gladeaters</t>
   </si>
   <si>
+    <t>Team 6</t>
+  </si>
+  <si>
     <t>The Pokemons</t>
   </si>
   <si>
@@ -208,36 +271,39 @@
     <t>Team 8</t>
   </si>
   <si>
+    <t>Fit don't Quit</t>
+  </si>
+  <si>
     <t>Unstoppable 9</t>
   </si>
   <si>
-    <t>Fit don't Quit</t>
-  </si>
-  <si>
     <t>Flab-u-less!</t>
   </si>
   <si>
-    <t>Team 6</t>
+    <t>Walk</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Walk</t>
-  </si>
-  <si>
     <t>Run</t>
   </si>
   <si>
+    <t>Swim</t>
+  </si>
+  <si>
     <t>Cycling</t>
   </si>
   <si>
-    <t>Swim</t>
+    <t>00:12:27</t>
   </si>
   <si>
     <t>00:35:00</t>
   </si>
   <si>
+    <t>00:56:50</t>
+  </si>
+  <si>
     <t>00:22:54</t>
   </si>
   <si>
@@ -247,27 +313,51 @@
     <t>00:46:40</t>
   </si>
   <si>
-    <t>00:05:34</t>
-  </si>
-  <si>
     <t>00:13:59</t>
   </si>
   <si>
+    <t>01:32:00</t>
+  </si>
+  <si>
+    <t>01:00:00</t>
+  </si>
+  <si>
+    <t>00:51:17</t>
+  </si>
+  <si>
+    <t>01:26:00</t>
+  </si>
+  <si>
+    <t>00:45:00</t>
+  </si>
+  <si>
     <t>00:25:14</t>
   </si>
   <si>
+    <t>01:24:00</t>
+  </si>
+  <si>
     <t>01:38:00</t>
   </si>
   <si>
+    <t>00:53:43</t>
+  </si>
+  <si>
     <t>01:40:00</t>
   </si>
   <si>
+    <t>00:48:56</t>
+  </si>
+  <si>
     <t>01:05:00</t>
   </si>
   <si>
     <t>01:12:00</t>
   </si>
   <si>
+    <t>00:45:12</t>
+  </si>
+  <si>
     <t>00:45:57</t>
   </si>
   <si>
@@ -277,12 +367,12 @@
     <t>01:08:00</t>
   </si>
   <si>
+    <t>00:34:03</t>
+  </si>
+  <si>
     <t>00:40:42</t>
   </si>
   <si>
-    <t>00:30:00</t>
-  </si>
-  <si>
     <t>00:35:37</t>
   </si>
   <si>
@@ -295,19 +385,28 @@
     <t>00:35:49</t>
   </si>
   <si>
+    <t>00:25:04</t>
+  </si>
+  <si>
+    <t>01:41:00</t>
+  </si>
+  <si>
     <t>Saturday</t>
   </si>
   <si>
     <t>3X</t>
   </si>
   <si>
+    <t>Run/Walk</t>
+  </si>
+  <si>
     <t>Yoga</t>
   </si>
   <si>
-    <t>Run/Walk</t>
-  </si>
-  <si>
     <t>Workout</t>
+  </si>
+  <si>
+    <t>Crossfit</t>
   </si>
 </sst>
 </file>
@@ -669,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,58 +847,58 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2">
         <v>44905</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>3.95</v>
       </c>
       <c r="M2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>3.95</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>90</v>
+        <v>11.85</v>
       </c>
       <c r="R2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -816,58 +915,58 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2">
         <v>44905</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L3">
         <v>10</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -884,64 +983,64 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2">
         <v>44905</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5.03</v>
+        <v>10.29</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L4">
-        <v>25.15</v>
+        <v>51.45</v>
       </c>
       <c r="M4">
         <v>20</v>
       </c>
       <c r="N4">
-        <v>45.15000000000001</v>
+        <v>71.44999999999999</v>
       </c>
       <c r="O4" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>135.45</v>
+        <v>214.35</v>
       </c>
       <c r="R4" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="S4">
-        <v>7.03</v>
+        <v>10.29</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V4" t="b">
         <v>0</v>
@@ -952,58 +1051,58 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2">
         <v>44905</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L5">
         <v>10</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>90</v>
-      </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1020,64 +1119,64 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2">
         <v>44905</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.18</v>
+        <v>5.03</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L6">
-        <v>2.18</v>
+        <v>25.15</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N6">
-        <v>2.18</v>
+        <v>45.15</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6.540000000000001</v>
+        <v>135.45</v>
       </c>
       <c r="R6" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="S6">
-        <v>2.18</v>
+        <v>7.03</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
@@ -1088,58 +1187,58 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44905</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1.23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>13</v>
-      </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L7">
-        <v>6.15</v>
+        <v>10</v>
       </c>
       <c r="M7">
         <v>20</v>
       </c>
       <c r="N7">
-        <v>26.15</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>78.44999999999999</v>
+        <v>90</v>
       </c>
       <c r="R7" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="S7">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1156,58 +1255,58 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2">
         <v>44905</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8</v>
+        <v>1.23</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>6.15</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>52</v>
+        <v>6.15</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>156</v>
+        <v>18.45</v>
       </c>
       <c r="R8" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="S8">
-        <v>0.8</v>
+        <v>1.23</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1224,58 +1323,58 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2">
         <v>44905</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>15.02</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L9">
-        <v>75.09999999999999</v>
+        <v>30</v>
       </c>
       <c r="M9">
         <v>20</v>
       </c>
       <c r="N9">
-        <v>95.09999999999999</v>
+        <v>50</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>285.3</v>
+        <v>150</v>
       </c>
       <c r="R9" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="S9">
-        <v>15.02</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1292,58 +1391,58 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2">
         <v>44905</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>20</v>
       </c>
-      <c r="N10">
-        <v>75</v>
-      </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="R10" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="S10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1360,64 +1459,64 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2">
         <v>44905</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>11.02</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L11">
-        <v>55.09999999999999</v>
+        <v>25</v>
       </c>
       <c r="M11">
         <v>20</v>
       </c>
       <c r="N11">
-        <v>75.09999999999999</v>
+        <v>45</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>225.3</v>
+        <v>135</v>
       </c>
       <c r="R11" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="S11">
-        <v>11.02</v>
+        <v>9</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
@@ -1428,58 +1527,58 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2">
         <v>44905</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.62</v>
+        <v>7.56</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L12">
-        <v>28.1</v>
+        <v>37.8</v>
       </c>
       <c r="M12">
         <v>20</v>
       </c>
       <c r="N12">
-        <v>48.1</v>
+        <v>57.8</v>
       </c>
       <c r="O12" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>144.3</v>
+        <v>173.4</v>
       </c>
       <c r="R12" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="S12">
-        <v>5.62</v>
+        <v>7.56</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -1496,25 +1595,25 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2">
         <v>44905</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.01</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1523,31 +1622,31 @@
         <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L13">
-        <v>20.05</v>
+        <v>10</v>
       </c>
       <c r="M13">
         <v>20</v>
       </c>
       <c r="N13">
-        <v>40.05</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>120.15</v>
+        <v>90</v>
       </c>
       <c r="R13" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="S13">
-        <v>4.01</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1564,25 +1663,25 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2">
         <v>44905</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1591,31 +1690,31 @@
         <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M14">
         <v>20</v>
       </c>
       <c r="N14">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="O14" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="R14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -1632,58 +1731,58 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2">
         <v>44905</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>6.78</v>
+        <v>5.12</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L15">
-        <v>33.9</v>
+        <v>25.6</v>
       </c>
       <c r="M15">
         <v>20</v>
       </c>
       <c r="N15">
-        <v>53.9</v>
+        <v>45.6</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>161.7</v>
+        <v>136.8</v>
       </c>
       <c r="R15" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="S15">
-        <v>6.78</v>
+        <v>5.12</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1700,58 +1799,58 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2">
         <v>44905</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.16</v>
+        <v>15.02</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L16">
-        <v>20.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="M16">
         <v>20</v>
       </c>
       <c r="N16">
-        <v>40.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>122.4</v>
+        <v>285.3</v>
       </c>
       <c r="R16" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="S16">
-        <v>4.16</v>
+        <v>15.02</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1768,58 +1867,58 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2">
         <v>44905</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17">
         <v>30</v>
       </c>
-      <c r="K17" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O17" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R17" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -1836,64 +1935,64 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2">
         <v>44905</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.33</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L18">
-        <v>16.65</v>
+        <v>55</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N18">
-        <v>16.65</v>
+        <v>75</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>49.95</v>
+        <v>225</v>
       </c>
       <c r="R18" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="S18">
-        <v>3.33</v>
+        <v>17</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -1904,64 +2003,64 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2">
         <v>44905</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>5.6</v>
+        <v>12.12</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>12.12</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>48</v>
+        <v>12.12</v>
       </c>
       <c r="O19" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>144</v>
+        <v>36.36</v>
       </c>
       <c r="R19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="S19">
-        <v>8.93</v>
+        <v>12.12</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
@@ -1972,58 +2071,58 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2">
         <v>44905</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>16.01</v>
+        <v>11.02</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L20">
-        <v>80.05000000000001</v>
+        <v>55.09999999999999</v>
       </c>
       <c r="M20">
         <v>20</v>
       </c>
       <c r="N20">
-        <v>100.05</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="O20" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>300.15</v>
+        <v>225.3</v>
       </c>
       <c r="R20" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="S20">
-        <v>16.01</v>
+        <v>11.02</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2040,58 +2139,58 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2">
         <v>44905</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>5.62</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>28.1</v>
       </c>
       <c r="M21">
         <v>20</v>
       </c>
       <c r="N21">
-        <v>30</v>
+        <v>48.1</v>
       </c>
       <c r="O21" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="P21" t="b">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>90</v>
+        <v>144.3</v>
       </c>
       <c r="R21" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>5.62</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2108,66 +2207,882 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2">
         <v>44905</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L22">
-        <v>13.75</v>
+        <v>15.75</v>
       </c>
       <c r="M22">
         <v>20</v>
       </c>
       <c r="N22">
+        <v>35.75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>107.25</v>
+      </c>
+      <c r="R22" t="s">
+        <v>127</v>
+      </c>
+      <c r="S22">
+        <v>3.15</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>4.01</v>
+      </c>
+      <c r="H23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>45</v>
+      </c>
+      <c r="K23" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23">
+        <v>20.05</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>40.05</v>
+      </c>
+      <c r="O23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>120.15</v>
+      </c>
+      <c r="R23" t="s">
+        <v>127</v>
+      </c>
+      <c r="S23">
+        <v>4.01</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>20</v>
+      </c>
+      <c r="N24">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>90</v>
+      </c>
+      <c r="R24" t="s">
+        <v>127</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>6.78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25">
+        <v>33.9</v>
+      </c>
+      <c r="M25">
+        <v>20</v>
+      </c>
+      <c r="N25">
+        <v>53.9</v>
+      </c>
+      <c r="O25" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>161.7</v>
+      </c>
+      <c r="R25" t="s">
+        <v>127</v>
+      </c>
+      <c r="S25">
+        <v>6.78</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>3.36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>34</v>
+      </c>
+      <c r="K26" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26">
+        <v>16.8</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>16.8</v>
+      </c>
+      <c r="O26" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>50.40000000000001</v>
+      </c>
+      <c r="R26" t="s">
+        <v>127</v>
+      </c>
+      <c r="S26">
+        <v>3.36</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>4.16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27">
+        <v>20.8</v>
+      </c>
+      <c r="M27">
+        <v>20</v>
+      </c>
+      <c r="N27">
+        <v>40.8</v>
+      </c>
+      <c r="O27" t="s">
+        <v>126</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>122.4</v>
+      </c>
+      <c r="R27" t="s">
+        <v>127</v>
+      </c>
+      <c r="S27">
+        <v>7.52</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>3.36</v>
+      </c>
+      <c r="V27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>3.33</v>
+      </c>
+      <c r="H28" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>35</v>
+      </c>
+      <c r="K28" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28">
+        <v>16.65</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>16.65</v>
+      </c>
+      <c r="O28" t="s">
+        <v>126</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>49.95</v>
+      </c>
+      <c r="R28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S28">
+        <v>3.33</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>5.6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>20</v>
+      </c>
+      <c r="N29">
+        <v>48</v>
+      </c>
+      <c r="O29" t="s">
+        <v>126</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>144</v>
+      </c>
+      <c r="R29" t="s">
+        <v>127</v>
+      </c>
+      <c r="S29">
+        <v>8.93</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>3.33</v>
+      </c>
+      <c r="V29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>16.01</v>
+      </c>
+      <c r="H30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>58</v>
+      </c>
+      <c r="K30" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30">
+        <v>80.05000000000001</v>
+      </c>
+      <c r="M30">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>100.05</v>
+      </c>
+      <c r="O30" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>300.15</v>
+      </c>
+      <c r="R30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S30">
+        <v>16.01</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>20</v>
+      </c>
+      <c r="N31">
+        <v>30</v>
+      </c>
+      <c r="O31" t="s">
+        <v>126</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>90</v>
+      </c>
+      <c r="R31" t="s">
+        <v>127</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>2.75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>35</v>
+      </c>
+      <c r="K32" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32">
+        <v>13.75</v>
+      </c>
+      <c r="M32">
+        <v>20</v>
+      </c>
+      <c r="N32">
         <v>33.75</v>
       </c>
-      <c r="O22" t="s">
-        <v>94</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
+      <c r="O32" t="s">
+        <v>126</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>101.25</v>
       </c>
-      <c r="R22" t="s">
-        <v>96</v>
-      </c>
-      <c r="S22">
+      <c r="R32" t="s">
+        <v>127</v>
+      </c>
+      <c r="S32">
         <v>2.75</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22" t="b">
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1.96</v>
+      </c>
+      <c r="H33" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>125</v>
+      </c>
+      <c r="L33">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="M33">
+        <v>20</v>
+      </c>
+      <c r="N33">
+        <v>29.8</v>
+      </c>
+      <c r="O33" t="s">
+        <v>126</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="R33" t="s">
+        <v>127</v>
+      </c>
+      <c r="S33">
+        <v>1.96</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>9.99</v>
+      </c>
+      <c r="H34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>41</v>
+      </c>
+      <c r="K34" t="s">
+        <v>125</v>
+      </c>
+      <c r="L34">
+        <v>49.95</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>69.95</v>
+      </c>
+      <c r="O34" t="s">
+        <v>126</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>209.85</v>
+      </c>
+      <c r="R34" t="s">
+        <v>127</v>
+      </c>
+      <c r="S34">
+        <v>9.99</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/data_all.xlsx
+++ b/data/data_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="257">
   <si>
     <t>Activity_ID</t>
   </si>
@@ -85,6 +85,9 @@
     <t>/activities/8231298176</t>
   </si>
   <si>
+    <t>/activities/8233930921</t>
+  </si>
+  <si>
     <t>/activities/8229579800</t>
   </si>
   <si>
@@ -97,90 +100,240 @@
     <t>/activities/8230187565</t>
   </si>
   <si>
+    <t>/activities/8234080300</t>
+  </si>
+  <si>
     <t>/activities/8229848314</t>
   </si>
   <si>
+    <t>/activities/8233695364</t>
+  </si>
+  <si>
+    <t>/activities/8232704338</t>
+  </si>
+  <si>
+    <t>/activities/8233066600</t>
+  </si>
+  <si>
     <t>/activities/8229719660</t>
   </si>
   <si>
+    <t>/activities/8233988153</t>
+  </si>
+  <si>
     <t>/activities/8231197041</t>
   </si>
   <si>
+    <t>/activities/8230766273</t>
+  </si>
+  <si>
     <t>/activities/8231125629</t>
   </si>
   <si>
-    <t>/activities/8230766273</t>
+    <t>/activities/8234041911</t>
+  </si>
+  <si>
+    <t>/activities/8231931740</t>
+  </si>
+  <si>
+    <t>/activities/8231713523</t>
+  </si>
+  <si>
+    <t>/activities/8232291422</t>
   </si>
   <si>
     <t>/activities/8231631411</t>
   </si>
   <si>
+    <t>/activities/8231999205</t>
+  </si>
+  <si>
+    <t>/activities/8233502894</t>
+  </si>
+  <si>
+    <t>/activities/8231667731</t>
+  </si>
+  <si>
+    <t>/activities/8233173813</t>
+  </si>
+  <si>
+    <t>/activities/8232131044</t>
+  </si>
+  <si>
+    <t>/activities/8233655494</t>
+  </si>
+  <si>
     <t>/activities/8231359133</t>
   </si>
   <si>
+    <t>/activities/8231719122</t>
+  </si>
+  <si>
     <t>/activities/8230340322</t>
   </si>
   <si>
+    <t>/activities/8233435895</t>
+  </si>
+  <si>
+    <t>/activities/8232425648</t>
+  </si>
+  <si>
     <t>/activities/8231539945</t>
   </si>
   <si>
     <t>/activities/8230079793</t>
   </si>
   <si>
+    <t>/activities/8231765809</t>
+  </si>
+  <si>
+    <t>/activities/8231924180</t>
+  </si>
+  <si>
     <t>/activities/8230794399</t>
   </si>
   <si>
     <t>/activities/8229707266</t>
   </si>
   <si>
+    <t>/activities/8234012724</t>
+  </si>
+  <si>
     <t>/activities/8231082181</t>
   </si>
   <si>
     <t>/activities/8230045262</t>
   </si>
   <si>
+    <t>/activities/8233919601</t>
+  </si>
+  <si>
     <t>/activities/8230114744</t>
   </si>
   <si>
+    <t>/activities/8231772848</t>
+  </si>
+  <si>
+    <t>/activities/8232213531</t>
+  </si>
+  <si>
+    <t>/activities/8233165750</t>
+  </si>
+  <si>
+    <t>/activities/8233244116</t>
+  </si>
+  <si>
+    <t>/activities/8231694237</t>
+  </si>
+  <si>
     <t>/activities/8231547299</t>
   </si>
   <si>
+    <t>/activities/8232429560</t>
+  </si>
+  <si>
     <t>/activities/8229774689</t>
   </si>
   <si>
+    <t>/activities/8233466326</t>
+  </si>
+  <si>
+    <t>/activities/8231678567</t>
+  </si>
+  <si>
+    <t>/activities/8231687385</t>
+  </si>
+  <si>
     <t>/activities/8229780695</t>
   </si>
   <si>
     <t>/activities/8229762382</t>
   </si>
   <si>
+    <t>/activities/8229857694</t>
+  </si>
+  <si>
     <t>/activities/8231508220</t>
   </si>
   <si>
-    <t>/activities/8229857694</t>
+    <t>/activities/8229658114</t>
   </si>
   <si>
     <t>/activities/8230253019</t>
   </si>
   <si>
-    <t>/activities/8229658114</t>
+    <t>/activities/8233887608</t>
+  </si>
+  <si>
+    <t>/activities/8234009514</t>
+  </si>
+  <si>
+    <t>/activities/8232511212</t>
+  </si>
+  <si>
+    <t>/activities/8233753153</t>
+  </si>
+  <si>
+    <t>/activities/8233753095</t>
   </si>
   <si>
     <t>/activities/8229812790</t>
   </si>
   <si>
+    <t>/activities/8233966415</t>
+  </si>
+  <si>
+    <t>/activities/8233966439</t>
+  </si>
+  <si>
     <t>/activities/8230144451</t>
   </si>
   <si>
+    <t>/activities/8232306669</t>
+  </si>
+  <si>
+    <t>/activities/8233784801</t>
+  </si>
+  <si>
     <t>/activities/8229755838</t>
   </si>
   <si>
+    <t>/activities/8232092387</t>
+  </si>
+  <si>
+    <t>/activities/8233924886</t>
+  </si>
+  <si>
     <t>/activities/8231475063</t>
   </si>
   <si>
+    <t>/activities/8232346269</t>
+  </si>
+  <si>
+    <t>/activities/8232346301</t>
+  </si>
+  <si>
+    <t>/activities/8233662821</t>
+  </si>
+  <si>
+    <t>/activities/8233518432</t>
+  </si>
+  <si>
+    <t>/activities/8232344455</t>
+  </si>
+  <si>
+    <t>/activities/8233940218</t>
+  </si>
+  <si>
+    <t>/activities/8231654736</t>
+  </si>
+  <si>
     <t>/activities/8231623414</t>
   </si>
   <si>
+    <t>/activities/8231953463</t>
+  </si>
+  <si>
     <t>Aarzoo Tandon</t>
   </si>
   <si>
@@ -193,27 +346,66 @@
     <t>Abhishek Singh</t>
   </si>
   <si>
+    <t>Allen Mills</t>
+  </si>
+  <si>
+    <t>Andrew CD</t>
+  </si>
+  <si>
     <t>Ankit Agarwal</t>
   </si>
   <si>
     <t>Ankit Talele</t>
   </si>
   <si>
+    <t>Anvesh Kalia</t>
+  </si>
+  <si>
+    <t>Brian Fitzgerald</t>
+  </si>
+  <si>
     <t>DIVYA TALUR</t>
   </si>
   <si>
+    <t>Damien Lorigan</t>
+  </si>
+  <si>
+    <t>Elena Teytelman</t>
+  </si>
+  <si>
+    <t>Enzo Bertoldi</t>
+  </si>
+  <si>
+    <t>Fabia Zarballa</t>
+  </si>
+  <si>
+    <t>Felipe Garcez</t>
+  </si>
+  <si>
     <t>Fernanda Mattei</t>
   </si>
   <si>
+    <t>Isha Kanani</t>
+  </si>
+  <si>
     <t>Ivana Kovacova</t>
   </si>
   <si>
+    <t>Jesse Williams</t>
+  </si>
+  <si>
+    <t>Jose Martinez</t>
+  </si>
+  <si>
     <t>Joyce Miyazato</t>
   </si>
   <si>
     <t>Juraj Mečír</t>
   </si>
   <si>
+    <t>Kalaiselvi Sekar</t>
+  </si>
+  <si>
     <t>Karthik Gunda</t>
   </si>
   <si>
@@ -223,12 +415,30 @@
     <t>Madhav Parashar</t>
   </si>
   <si>
+    <t>Manish Shetty</t>
+  </si>
+  <si>
+    <t>Nealie Glasser</t>
+  </si>
+  <si>
+    <t>Neha Arora</t>
+  </si>
+  <si>
     <t>Nikhitha Vegi</t>
   </si>
   <si>
+    <t>Preetha Dandapani</t>
+  </si>
+  <si>
     <t>RAVINDER SINGH BISHT</t>
   </si>
   <si>
+    <t>Rafael Fraga Mohr</t>
+  </si>
+  <si>
+    <t>Rahul Roy Choudhury</t>
+  </si>
+  <si>
     <t>Rajat Sadanand</t>
   </si>
   <si>
@@ -241,18 +451,45 @@
     <t>Sanjay K</t>
   </si>
   <si>
+    <t>Saranraj SP</t>
+  </si>
+  <si>
+    <t>Satish Patil</t>
+  </si>
+  <si>
     <t>Shailesh abecedarian</t>
   </si>
   <si>
     <t>Shreeja Verma</t>
   </si>
   <si>
+    <t>Simon Talapa</t>
+  </si>
+  <si>
+    <t>Sree Kothapalli</t>
+  </si>
+  <si>
     <t>Subramita Dash</t>
   </si>
   <si>
+    <t>Sumit Wadhwa</t>
+  </si>
+  <si>
     <t>Suparna Lala</t>
   </si>
   <si>
+    <t>Victor Caetano</t>
+  </si>
+  <si>
+    <t>William Matheson</t>
+  </si>
+  <si>
+    <t>craig friedman</t>
+  </si>
+  <si>
+    <t>leela krishna</t>
+  </si>
+  <si>
     <t>tinku sand</t>
   </si>
   <si>
@@ -268,6 +505,9 @@
     <t>Pace Makers</t>
   </si>
   <si>
+    <t>Flab-u-less!</t>
+  </si>
+  <si>
     <t>Team 8</t>
   </si>
   <si>
@@ -277,7 +517,10 @@
     <t>Unstoppable 9</t>
   </si>
   <si>
-    <t>Flab-u-less!</t>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>No Mo Junk in da Trunk</t>
   </si>
   <si>
     <t>Walk</t>
@@ -298,6 +541,9 @@
     <t>00:12:27</t>
   </si>
   <si>
+    <t>00:27:36</t>
+  </si>
+  <si>
     <t>00:35:00</t>
   </si>
   <si>
@@ -310,103 +556,235 @@
     <t>00:29:09</t>
   </si>
   <si>
+    <t>01:18:00</t>
+  </si>
+  <si>
     <t>00:46:40</t>
   </si>
   <si>
+    <t>01:05:00</t>
+  </si>
+  <si>
+    <t>02:01:00</t>
+  </si>
+  <si>
+    <t>00:24:14</t>
+  </si>
+  <si>
     <t>00:13:59</t>
   </si>
   <si>
+    <t>00:25:59</t>
+  </si>
+  <si>
     <t>01:32:00</t>
   </si>
   <si>
+    <t>00:51:17</t>
+  </si>
+  <si>
     <t>01:00:00</t>
   </si>
   <si>
-    <t>00:51:17</t>
+    <t>00:25:56</t>
+  </si>
+  <si>
+    <t>00:32:50</t>
+  </si>
+  <si>
+    <t>01:03:00</t>
   </si>
   <si>
     <t>01:26:00</t>
   </si>
   <si>
+    <t>03:08:00</t>
+  </si>
+  <si>
+    <t>00:32:12</t>
+  </si>
+  <si>
+    <t>01:02:00</t>
+  </si>
+  <si>
+    <t>00:51:27</t>
+  </si>
+  <si>
+    <t>00:31:15</t>
+  </si>
+  <si>
+    <t>00:58:42</t>
+  </si>
+  <si>
     <t>00:45:00</t>
   </si>
   <si>
     <t>00:25:14</t>
   </si>
   <si>
+    <t>01:30:00</t>
+  </si>
+  <si>
+    <t>01:31:00</t>
+  </si>
+  <si>
     <t>01:24:00</t>
   </si>
   <si>
     <t>01:38:00</t>
   </si>
   <si>
+    <t>00:50:00</t>
+  </si>
+  <si>
     <t>00:53:43</t>
   </si>
   <si>
     <t>01:40:00</t>
   </si>
   <si>
+    <t>00:46:07</t>
+  </si>
+  <si>
     <t>00:48:56</t>
   </si>
   <si>
-    <t>01:05:00</t>
+    <t>01:07:00</t>
   </si>
   <si>
     <t>01:12:00</t>
   </si>
   <si>
+    <t>00:37:47</t>
+  </si>
+  <si>
+    <t>00:29:54</t>
+  </si>
+  <si>
+    <t>00:06:31</t>
+  </si>
+  <si>
     <t>00:45:12</t>
   </si>
   <si>
+    <t>00:59:29</t>
+  </si>
+  <si>
     <t>00:45:57</t>
   </si>
   <si>
+    <t>00:27:07</t>
+  </si>
+  <si>
+    <t>02:12:00</t>
+  </si>
+  <si>
     <t>00:25:00</t>
   </si>
   <si>
     <t>01:08:00</t>
   </si>
   <si>
+    <t>00:40:42</t>
+  </si>
+  <si>
     <t>00:34:03</t>
   </si>
   <si>
-    <t>00:40:42</t>
+    <t>01:10:00</t>
   </si>
   <si>
     <t>00:35:37</t>
   </si>
   <si>
-    <t>01:10:00</t>
+    <t>00:40:32</t>
+  </si>
+  <si>
+    <t>01:11:00</t>
+  </si>
+  <si>
+    <t>00:31:18</t>
+  </si>
+  <si>
+    <t>00:59:59</t>
   </si>
   <si>
     <t>01:58:00</t>
   </si>
   <si>
+    <t>00:28:08</t>
+  </si>
+  <si>
+    <t>01:29:00</t>
+  </si>
+  <si>
+    <t>01:28:00</t>
+  </si>
+  <si>
     <t>00:35:49</t>
   </si>
   <si>
+    <t>00:35:40</t>
+  </si>
+  <si>
+    <t>00:04:55</t>
+  </si>
+  <si>
     <t>00:25:04</t>
   </si>
   <si>
+    <t>00:44:56</t>
+  </si>
+  <si>
+    <t>02:14:00</t>
+  </si>
+  <si>
+    <t>02:36:00</t>
+  </si>
+  <si>
+    <t>00:14:48</t>
+  </si>
+  <si>
+    <t>00:51:29</t>
+  </si>
+  <si>
+    <t>00:10:40</t>
+  </si>
+  <si>
+    <t>00:54:50</t>
+  </si>
+  <si>
     <t>01:41:00</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
+    <t>Sunday</t>
+  </si>
+  <si>
     <t>3X</t>
   </si>
   <si>
+    <t>2X</t>
+  </si>
+  <si>
     <t>Run/Walk</t>
   </si>
   <si>
     <t>Yoga</t>
   </si>
   <si>
+    <t>Weight Training</t>
+  </si>
+  <si>
     <t>Workout</t>
   </si>
   <si>
     <t>Crossfit</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
 </sst>
 </file>
@@ -768,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,16 +1225,16 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2">
         <v>44905</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -865,7 +1243,7 @@
         <v>0.79</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -874,7 +1252,7 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L2">
         <v>3.95</v>
@@ -886,7 +1264,7 @@
         <v>3.95</v>
       </c>
       <c r="O2" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -895,7 +1273,7 @@
         <v>11.85</v>
       </c>
       <c r="R2" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S2">
         <v>0.79</v>
@@ -915,64 +1293,64 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>9.65</v>
       </c>
       <c r="M3">
         <v>20</v>
       </c>
       <c r="N3">
-        <v>30</v>
+        <v>29.65</v>
       </c>
       <c r="O3" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>90</v>
+        <v>59.3</v>
       </c>
       <c r="R3" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="V3" t="b">
         <v>0</v>
@@ -983,58 +1361,58 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2">
         <v>44905</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>10.29</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L4">
-        <v>51.45</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>20</v>
       </c>
       <c r="N4">
-        <v>71.44999999999999</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>214.35</v>
+        <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="S4">
-        <v>10.29</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1051,58 +1429,58 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="D5" s="2">
         <v>44905</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>10.29</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>51.45</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>71.45</v>
       </c>
       <c r="O5" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>214.35</v>
       </c>
       <c r="R5" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>10.29</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1119,64 +1497,64 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="D6" s="2">
         <v>44905</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5.03</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L6">
-        <v>25.15</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>45.15</v>
+        <v>10</v>
       </c>
       <c r="O6" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>135.45</v>
+        <v>30</v>
       </c>
       <c r="R6" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S6">
-        <v>7.03</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
@@ -1187,64 +1565,64 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="D7" s="2">
         <v>44905</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5.03</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>25.15</v>
       </c>
       <c r="M7">
         <v>20</v>
       </c>
       <c r="N7">
-        <v>30</v>
+        <v>45.15</v>
       </c>
       <c r="O7" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>90</v>
+        <v>135.45</v>
       </c>
       <c r="R7" t="s">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>7.03</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
@@ -1255,58 +1633,58 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="D8" s="2">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="L8">
-        <v>6.15</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N8">
-        <v>6.15</v>
+        <v>40</v>
       </c>
       <c r="O8" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18.45</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
-        <v>127</v>
+        <v>253</v>
       </c>
       <c r="S8">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1323,16 +1701,16 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2">
         <v>44905</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1341,37 +1719,37 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M9">
         <v>20</v>
       </c>
       <c r="N9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="R9" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1391,58 +1769,58 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="D10" s="2">
         <v>44905</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>7.71</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L10">
+        <v>38.55</v>
+      </c>
+      <c r="M10">
         <v>20</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
-        <v>20</v>
+        <v>58.55</v>
       </c>
       <c r="O10" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>60</v>
+        <v>175.65</v>
       </c>
       <c r="R10" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>7.71</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1459,64 +1837,64 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="D11" s="2">
         <v>44905</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>21.56</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L11">
-        <v>25</v>
+        <v>107.8</v>
       </c>
       <c r="M11">
         <v>20</v>
       </c>
       <c r="N11">
-        <v>45</v>
+        <v>127.8</v>
       </c>
       <c r="O11" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>135</v>
+        <v>383.4</v>
       </c>
       <c r="R11" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S11">
-        <v>9</v>
+        <v>21.56</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
@@ -1527,64 +1905,64 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="D12" s="2">
         <v>44905</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>7.56</v>
+        <v>2.26</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>247</v>
+      </c>
+      <c r="L12">
+        <v>11.3</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11.3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>249</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>33.9</v>
+      </c>
+      <c r="R12" t="s">
+        <v>251</v>
+      </c>
+      <c r="S12">
+        <v>23.82</v>
+      </c>
+      <c r="T12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>125</v>
-      </c>
-      <c r="L12">
-        <v>37.8</v>
-      </c>
-      <c r="M12">
-        <v>20</v>
-      </c>
-      <c r="N12">
-        <v>57.8</v>
-      </c>
-      <c r="O12" t="s">
-        <v>126</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>173.4</v>
-      </c>
-      <c r="R12" t="s">
-        <v>127</v>
-      </c>
-      <c r="S12">
-        <v>7.56</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
-        <v>0</v>
+        <v>21.56</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
@@ -1595,58 +1973,58 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="D13" s="2">
         <v>44905</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>6.15</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>30</v>
+        <v>6.15</v>
       </c>
       <c r="O13" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>90</v>
+        <v>18.45</v>
       </c>
       <c r="R13" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1663,25 +2041,25 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="D14" s="2">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8</v>
+        <v>2.07</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,37 +2068,37 @@
         <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>10.35</v>
       </c>
       <c r="M14">
         <v>20</v>
       </c>
       <c r="N14">
-        <v>52</v>
+        <v>30.35</v>
       </c>
       <c r="O14" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>156</v>
+        <v>60.7</v>
       </c>
       <c r="R14" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="S14">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -1731,58 +2109,58 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="D15" s="2">
         <v>44905</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L15">
-        <v>25.6</v>
+        <v>30</v>
       </c>
       <c r="M15">
         <v>20</v>
       </c>
       <c r="N15">
-        <v>45.6</v>
+        <v>50</v>
       </c>
       <c r="O15" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>136.8</v>
+        <v>150</v>
       </c>
       <c r="R15" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="S15">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1799,58 +2177,58 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="D16" s="2">
         <v>44905</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>15.02</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L16">
-        <v>75.09999999999999</v>
+        <v>25</v>
       </c>
       <c r="M16">
         <v>20</v>
       </c>
       <c r="N16">
-        <v>95.09999999999999</v>
+        <v>45</v>
       </c>
       <c r="O16" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>285.3</v>
+        <v>135</v>
       </c>
       <c r="R16" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S16">
-        <v>15.02</v>
+        <v>5</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1867,64 +2245,64 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2">
         <v>44905</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O17" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="R17" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V17" t="b">
         <v>0</v>
@@ -1935,64 +2313,64 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="D18" s="2">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>6.86</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K18" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="L18">
-        <v>55</v>
+        <v>34.3</v>
       </c>
       <c r="M18">
         <v>20</v>
       </c>
       <c r="N18">
-        <v>75</v>
+        <v>54.3</v>
       </c>
       <c r="O18" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>225</v>
+        <v>108.6</v>
       </c>
       <c r="R18" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S18">
-        <v>17</v>
+        <v>15.86</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -2003,58 +2381,58 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="D19" s="2">
         <v>44905</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.12</v>
+        <v>2.56</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L19">
-        <v>12.12</v>
+        <v>12.8</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.12</v>
+        <v>12.8</v>
       </c>
       <c r="O19" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36.36</v>
+        <v>38.40000000000001</v>
       </c>
       <c r="R19" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="S19">
-        <v>12.12</v>
+        <v>2.56</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2071,58 +2449,58 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="D20" s="2">
         <v>44905</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>11.02</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L20">
-        <v>55.09999999999999</v>
+        <v>20</v>
       </c>
       <c r="M20">
         <v>20</v>
       </c>
       <c r="N20">
-        <v>75.09999999999999</v>
+        <v>40</v>
       </c>
       <c r="O20" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>225.3</v>
+        <v>120</v>
       </c>
       <c r="R20" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="S20">
-        <v>11.02</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2139,58 +2517,58 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="D21" s="2">
         <v>44905</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.62</v>
+        <v>4.64</v>
       </c>
       <c r="H21" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L21">
-        <v>28.1</v>
+        <v>23.2</v>
       </c>
       <c r="M21">
         <v>20</v>
       </c>
       <c r="N21">
-        <v>48.1</v>
+        <v>43.2</v>
       </c>
       <c r="O21" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P21" t="b">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>144.3</v>
+        <v>129.6</v>
       </c>
       <c r="R21" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S21">
-        <v>5.62</v>
+        <v>4.64</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2207,58 +2585,58 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D22" s="2">
         <v>44905</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.15</v>
+        <v>7.56</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L22">
-        <v>15.75</v>
+        <v>37.8</v>
       </c>
       <c r="M22">
         <v>20</v>
       </c>
       <c r="N22">
-        <v>35.75</v>
+        <v>57.8</v>
       </c>
       <c r="O22" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P22" t="b">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>107.25</v>
+        <v>173.4</v>
       </c>
       <c r="R22" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S22">
-        <v>3.15</v>
+        <v>7.56</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -2275,58 +2653,58 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="D23" s="2">
         <v>44905</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.01</v>
+        <v>13.18</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L23">
-        <v>20.05</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="M23">
         <v>20</v>
       </c>
       <c r="N23">
-        <v>40.05</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="O23" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P23" t="b">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>120.15</v>
+        <v>257.7</v>
       </c>
       <c r="R23" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S23">
-        <v>4.01</v>
+        <v>13.18</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -2343,64 +2721,64 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="D24" s="2">
         <v>44905</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>2.56</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>12.8</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>30</v>
+        <v>12.8</v>
       </c>
       <c r="O24" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>90</v>
+        <v>38.40000000000001</v>
       </c>
       <c r="R24" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>15.74</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>13.18</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
@@ -2411,58 +2789,58 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="D25" s="2">
         <v>44905</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>6.78</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L25">
-        <v>33.9</v>
+        <v>20</v>
       </c>
       <c r="M25">
         <v>20</v>
       </c>
       <c r="N25">
-        <v>53.9</v>
+        <v>40</v>
       </c>
       <c r="O25" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P25" t="b">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>161.7</v>
+        <v>120</v>
       </c>
       <c r="R25" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="S25">
-        <v>6.78</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -2479,58 +2857,58 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="D26" s="2">
         <v>44905</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>3.36</v>
+        <v>5.12</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L26">
-        <v>16.8</v>
+        <v>25.6</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N26">
-        <v>16.8</v>
+        <v>45.6</v>
       </c>
       <c r="O26" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P26" t="b">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>50.40000000000001</v>
+        <v>136.8</v>
       </c>
       <c r="R26" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S26">
-        <v>3.36</v>
+        <v>5.12</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -2547,64 +2925,64 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="D27" s="2">
         <v>44905</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>4.16</v>
+        <v>2.11</v>
       </c>
       <c r="H27" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K27" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L27">
-        <v>20.8</v>
+        <v>10.55</v>
       </c>
       <c r="M27">
         <v>20</v>
       </c>
       <c r="N27">
-        <v>40.8</v>
+        <v>30.55</v>
       </c>
       <c r="O27" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P27" t="b">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>122.4</v>
+        <v>91.64999999999999</v>
       </c>
       <c r="R27" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S27">
-        <v>7.52</v>
+        <v>2.11</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>3.36</v>
+        <v>0</v>
       </c>
       <c r="V27" t="b">
         <v>0</v>
@@ -2615,58 +2993,58 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="D28" s="2">
         <v>44905</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>3.33</v>
+        <v>5.33</v>
       </c>
       <c r="H28" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L28">
-        <v>16.65</v>
+        <v>26.65</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N28">
-        <v>16.65</v>
+        <v>46.65</v>
       </c>
       <c r="O28" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P28" t="b">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>49.95</v>
+        <v>139.95</v>
       </c>
       <c r="R28" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S28">
-        <v>3.33</v>
+        <v>5.33</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2683,64 +3061,64 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="D29" s="2">
         <v>44905</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
+        <v>45</v>
+      </c>
+      <c r="K29" t="s">
+        <v>247</v>
+      </c>
+      <c r="L29">
         <v>10</v>
-      </c>
-      <c r="K29" t="s">
-        <v>125</v>
-      </c>
-      <c r="L29">
-        <v>28</v>
       </c>
       <c r="M29">
         <v>20</v>
       </c>
       <c r="N29">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="O29" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P29" t="b">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="R29" t="s">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="S29">
-        <v>8.93</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="V29" t="b">
         <v>0</v>
@@ -2751,58 +3129,58 @@
         <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2">
         <v>44905</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>16.01</v>
+        <v>5.15</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L30">
-        <v>80.05000000000001</v>
+        <v>25.75</v>
       </c>
       <c r="M30">
         <v>20</v>
       </c>
       <c r="N30">
-        <v>100.05</v>
+        <v>45.75</v>
       </c>
       <c r="O30" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P30" t="b">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>300.15</v>
+        <v>137.25</v>
       </c>
       <c r="R30" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S30">
-        <v>16.01</v>
+        <v>5.15</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -2819,58 +3197,58 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D31" s="2">
         <v>44905</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K31" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M31">
         <v>20</v>
       </c>
       <c r="N31">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="O31" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P31" t="b">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="R31" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -2887,58 +3265,58 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="D32" s="2">
         <v>44905</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>2.75</v>
+        <v>17.14</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K32" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L32">
-        <v>13.75</v>
+        <v>85.7</v>
       </c>
       <c r="M32">
         <v>20</v>
       </c>
       <c r="N32">
-        <v>33.75</v>
+        <v>105.7</v>
       </c>
       <c r="O32" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P32" t="b">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>101.25</v>
+        <v>317.1</v>
       </c>
       <c r="R32" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S32">
-        <v>2.75</v>
+        <v>17.14</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -2955,58 +3333,58 @@
         <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2">
         <v>44905</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1.96</v>
+        <v>16.11</v>
       </c>
       <c r="H33" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K33" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L33">
-        <v>9.800000000000001</v>
+        <v>80.55</v>
       </c>
       <c r="M33">
         <v>20</v>
       </c>
       <c r="N33">
-        <v>29.8</v>
+        <v>100.55</v>
       </c>
       <c r="O33" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="P33" t="b">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>89.40000000000001</v>
+        <v>301.65</v>
       </c>
       <c r="R33" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="S33">
-        <v>1.96</v>
+        <v>16.11</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3023,66 +3401,3534 @@
         <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="D34" s="2">
         <v>44905</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>9.99</v>
+        <v>5.12</v>
       </c>
       <c r="H34" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L34">
-        <v>49.95</v>
+        <v>25.6</v>
       </c>
       <c r="M34">
         <v>20</v>
       </c>
       <c r="N34">
+        <v>45.6</v>
+      </c>
+      <c r="O34" t="s">
+        <v>249</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>136.8</v>
+      </c>
+      <c r="R34" t="s">
+        <v>251</v>
+      </c>
+      <c r="S34">
+        <v>5.12</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>15.02</v>
+      </c>
+      <c r="H35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s">
+        <v>247</v>
+      </c>
+      <c r="L35">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="O35" t="s">
+        <v>249</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>285.3</v>
+      </c>
+      <c r="R35" t="s">
+        <v>251</v>
+      </c>
+      <c r="S35">
+        <v>15.02</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E36" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>202</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>30</v>
+      </c>
+      <c r="K36" t="s">
+        <v>247</v>
+      </c>
+      <c r="L36">
+        <v>30</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>30</v>
+      </c>
+      <c r="O36" t="s">
+        <v>249</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>90</v>
+      </c>
+      <c r="R36" t="s">
+        <v>253</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E37" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>3.9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>50</v>
+      </c>
+      <c r="K37" t="s">
+        <v>247</v>
+      </c>
+      <c r="L37">
+        <v>19.5</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>39.5</v>
+      </c>
+      <c r="O37" t="s">
+        <v>249</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>118.5</v>
+      </c>
+      <c r="R37" t="s">
+        <v>251</v>
+      </c>
+      <c r="S37">
+        <v>3.9</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>53</v>
+      </c>
+      <c r="K38" t="s">
+        <v>247</v>
+      </c>
+      <c r="L38">
+        <v>30</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>30</v>
+      </c>
+      <c r="O38" t="s">
+        <v>249</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>90</v>
+      </c>
+      <c r="R38" t="s">
+        <v>251</v>
+      </c>
+      <c r="S38">
+        <v>6</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>208</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>40</v>
+      </c>
+      <c r="K39" t="s">
+        <v>247</v>
+      </c>
+      <c r="L39">
+        <v>55</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>75</v>
+      </c>
+      <c r="O39" t="s">
+        <v>249</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>225</v>
+      </c>
+      <c r="R39" t="s">
+        <v>251</v>
+      </c>
+      <c r="S39">
+        <v>17</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+      <c r="V39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="2">
+        <v>44906</v>
+      </c>
+      <c r="E40" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>46</v>
+      </c>
+      <c r="K40" t="s">
+        <v>248</v>
+      </c>
+      <c r="L40">
+        <v>25</v>
+      </c>
+      <c r="M40">
+        <v>20</v>
+      </c>
+      <c r="N40">
+        <v>45</v>
+      </c>
+      <c r="O40" t="s">
+        <v>250</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>90</v>
+      </c>
+      <c r="R40" t="s">
+        <v>251</v>
+      </c>
+      <c r="S40">
+        <v>22</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>17</v>
+      </c>
+      <c r="V40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>12.12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>48</v>
+      </c>
+      <c r="K41" t="s">
+        <v>247</v>
+      </c>
+      <c r="L41">
+        <v>12.12</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>12.12</v>
+      </c>
+      <c r="O41" t="s">
+        <v>249</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>36.36</v>
+      </c>
+      <c r="R41" t="s">
+        <v>173</v>
+      </c>
+      <c r="S41">
+        <v>12.12</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>11.02</v>
+      </c>
+      <c r="H42" t="s">
+        <v>182</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42" t="s">
+        <v>247</v>
+      </c>
+      <c r="L42">
+        <v>55.09999999999999</v>
+      </c>
+      <c r="M42">
+        <v>20</v>
+      </c>
+      <c r="N42">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="O42" t="s">
+        <v>249</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>225.3</v>
+      </c>
+      <c r="R42" t="s">
+        <v>251</v>
+      </c>
+      <c r="S42">
+        <v>11.02</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="2">
+        <v>44906</v>
+      </c>
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>5.11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>211</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>7</v>
+      </c>
+      <c r="K43" t="s">
+        <v>248</v>
+      </c>
+      <c r="L43">
+        <v>25.55</v>
+      </c>
+      <c r="M43">
+        <v>20</v>
+      </c>
+      <c r="N43">
+        <v>45.55</v>
+      </c>
+      <c r="O43" t="s">
+        <v>250</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="R43" t="s">
+        <v>251</v>
+      </c>
+      <c r="S43">
+        <v>16.13</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>11.02</v>
+      </c>
+      <c r="V43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E44" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>5.62</v>
+      </c>
+      <c r="H44" t="s">
+        <v>212</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>12</v>
+      </c>
+      <c r="K44" t="s">
+        <v>247</v>
+      </c>
+      <c r="L44">
+        <v>28.1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>28.1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>249</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>84.30000000000001</v>
+      </c>
+      <c r="R44" t="s">
+        <v>251</v>
+      </c>
+      <c r="S44">
+        <v>5.62</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E45" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>183</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>247</v>
+      </c>
+      <c r="L45">
+        <v>40</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>60</v>
+      </c>
+      <c r="O45" t="s">
+        <v>249</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>180</v>
+      </c>
+      <c r="R45" t="s">
+        <v>254</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E46" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>196</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46" t="s">
+        <v>247</v>
+      </c>
+      <c r="L46">
+        <v>20</v>
+      </c>
+      <c r="M46">
+        <v>20</v>
+      </c>
+      <c r="N46">
+        <v>40</v>
+      </c>
+      <c r="O46" t="s">
+        <v>249</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>120</v>
+      </c>
+      <c r="R46" t="s">
+        <v>253</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>3.25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>213</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>37</v>
+      </c>
+      <c r="K47" t="s">
+        <v>247</v>
+      </c>
+      <c r="L47">
+        <v>16.25</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>16.25</v>
+      </c>
+      <c r="O47" t="s">
+        <v>249</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>48.75</v>
+      </c>
+      <c r="R47" t="s">
+        <v>251</v>
+      </c>
+      <c r="S47">
+        <v>3.25</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>5.69</v>
+      </c>
+      <c r="H48" t="s">
+        <v>214</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>29</v>
+      </c>
+      <c r="K48" t="s">
+        <v>247</v>
+      </c>
+      <c r="L48">
+        <v>28.45</v>
+      </c>
+      <c r="M48">
+        <v>20</v>
+      </c>
+      <c r="N48">
+        <v>48.45</v>
+      </c>
+      <c r="O48" t="s">
+        <v>249</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>145.35</v>
+      </c>
+      <c r="R48" t="s">
+        <v>251</v>
+      </c>
+      <c r="S48">
+        <v>8.940000000000001</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>3.25</v>
+      </c>
+      <c r="V48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E49" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0.5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>215</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+      <c r="K49" t="s">
+        <v>247</v>
+      </c>
+      <c r="L49">
+        <v>2.5</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>22.5</v>
+      </c>
+      <c r="O49" t="s">
+        <v>249</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>67.5</v>
+      </c>
+      <c r="R49" t="s">
+        <v>251</v>
+      </c>
+      <c r="S49">
+        <v>0.5</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>3.15</v>
+      </c>
+      <c r="H50" t="s">
+        <v>216</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>45</v>
+      </c>
+      <c r="K50" t="s">
+        <v>247</v>
+      </c>
+      <c r="L50">
+        <v>15.75</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>35.75</v>
+      </c>
+      <c r="O50" t="s">
+        <v>249</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>107.25</v>
+      </c>
+      <c r="R50" t="s">
+        <v>251</v>
+      </c>
+      <c r="S50">
+        <v>3.15</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E51" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>5.12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>217</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>59</v>
+      </c>
+      <c r="K51" t="s">
+        <v>247</v>
+      </c>
+      <c r="L51">
+        <v>25.6</v>
+      </c>
+      <c r="M51">
+        <v>20</v>
+      </c>
+      <c r="N51">
+        <v>45.6</v>
+      </c>
+      <c r="O51" t="s">
+        <v>249</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>136.8</v>
+      </c>
+      <c r="R51" t="s">
+        <v>251</v>
+      </c>
+      <c r="S51">
+        <v>5.12</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>4.01</v>
+      </c>
+      <c r="H52" t="s">
+        <v>218</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>45</v>
+      </c>
+      <c r="K52" t="s">
+        <v>247</v>
+      </c>
+      <c r="L52">
+        <v>20.05</v>
+      </c>
+      <c r="M52">
+        <v>20</v>
+      </c>
+      <c r="N52">
+        <v>40.05</v>
+      </c>
+      <c r="O52" t="s">
+        <v>249</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>120.15</v>
+      </c>
+      <c r="R52" t="s">
+        <v>251</v>
+      </c>
+      <c r="S52">
+        <v>4.01</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E53" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>2.34</v>
+      </c>
+      <c r="H53" t="s">
+        <v>219</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>27</v>
+      </c>
+      <c r="K53" t="s">
+        <v>247</v>
+      </c>
+      <c r="L53">
+        <v>11.7</v>
+      </c>
+      <c r="M53">
+        <v>20</v>
+      </c>
+      <c r="N53">
+        <v>31.7</v>
+      </c>
+      <c r="O53" t="s">
+        <v>249</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="R53" t="s">
+        <v>251</v>
+      </c>
+      <c r="S53">
+        <v>2.34</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E54" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>9.42</v>
+      </c>
+      <c r="H54" t="s">
+        <v>203</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>31</v>
+      </c>
+      <c r="K54" t="s">
+        <v>247</v>
+      </c>
+      <c r="L54">
+        <v>47.1</v>
+      </c>
+      <c r="M54">
+        <v>20</v>
+      </c>
+      <c r="N54">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="O54" t="s">
+        <v>249</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>201.3</v>
+      </c>
+      <c r="R54" t="s">
+        <v>251</v>
+      </c>
+      <c r="S54">
+        <v>9.42</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E55" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>220</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>12</v>
+      </c>
+      <c r="K55" t="s">
+        <v>247</v>
+      </c>
+      <c r="L55">
+        <v>40</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>40</v>
+      </c>
+      <c r="O55" t="s">
+        <v>249</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>120</v>
+      </c>
+      <c r="R55" t="s">
+        <v>254</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E56" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>221</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>25</v>
+      </c>
+      <c r="K56" t="s">
+        <v>247</v>
+      </c>
+      <c r="L56">
+        <v>10</v>
+      </c>
+      <c r="M56">
+        <v>20</v>
+      </c>
+      <c r="N56">
+        <v>30</v>
+      </c>
+      <c r="O56" t="s">
+        <v>249</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>90</v>
+      </c>
+      <c r="R56" t="s">
+        <v>251</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>6.78</v>
+      </c>
+      <c r="H57" t="s">
+        <v>222</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57" t="s">
+        <v>247</v>
+      </c>
+      <c r="L57">
+        <v>33.9</v>
+      </c>
+      <c r="M57">
+        <v>20</v>
+      </c>
+      <c r="N57">
+        <v>53.9</v>
+      </c>
+      <c r="O57" t="s">
+        <v>249</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>161.7</v>
+      </c>
+      <c r="R57" t="s">
+        <v>251</v>
+      </c>
+      <c r="S57">
+        <v>6.78</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>4.16</v>
+      </c>
+      <c r="H58" t="s">
+        <v>223</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>40</v>
+      </c>
+      <c r="K58" t="s">
+        <v>247</v>
+      </c>
+      <c r="L58">
+        <v>20.8</v>
+      </c>
+      <c r="M58">
+        <v>20</v>
+      </c>
+      <c r="N58">
+        <v>40.8</v>
+      </c>
+      <c r="O58" t="s">
+        <v>249</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>122.4</v>
+      </c>
+      <c r="R58" t="s">
+        <v>251</v>
+      </c>
+      <c r="S58">
+        <v>4.16</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E59" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>3.36</v>
+      </c>
+      <c r="H59" t="s">
+        <v>224</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>34</v>
+      </c>
+      <c r="K59" t="s">
+        <v>247</v>
+      </c>
+      <c r="L59">
+        <v>16.8</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>16.8</v>
+      </c>
+      <c r="O59" t="s">
+        <v>249</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>50.40000000000001</v>
+      </c>
+      <c r="R59" t="s">
+        <v>251</v>
+      </c>
+      <c r="S59">
+        <v>7.52</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>4.16</v>
+      </c>
+      <c r="V59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>5.6</v>
+      </c>
+      <c r="H60" t="s">
+        <v>225</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60" t="s">
+        <v>247</v>
+      </c>
+      <c r="L60">
+        <v>28</v>
+      </c>
+      <c r="M60">
+        <v>20</v>
+      </c>
+      <c r="N60">
+        <v>48</v>
+      </c>
+      <c r="O60" t="s">
+        <v>249</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>144</v>
+      </c>
+      <c r="R60" t="s">
+        <v>251</v>
+      </c>
+      <c r="S60">
+        <v>5.6</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E61" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>3.33</v>
+      </c>
+      <c r="H61" t="s">
+        <v>226</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>35</v>
+      </c>
+      <c r="K61" t="s">
+        <v>247</v>
+      </c>
+      <c r="L61">
+        <v>16.65</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>16.65</v>
+      </c>
+      <c r="O61" t="s">
+        <v>249</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>49.95</v>
+      </c>
+      <c r="R61" t="s">
+        <v>251</v>
+      </c>
+      <c r="S61">
+        <v>8.93</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>5.6</v>
+      </c>
+      <c r="V61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="2">
+        <v>44906</v>
+      </c>
+      <c r="E62" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>3.02</v>
+      </c>
+      <c r="H62" t="s">
+        <v>227</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>40</v>
+      </c>
+      <c r="K62" t="s">
+        <v>248</v>
+      </c>
+      <c r="L62">
+        <v>15.1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>15.1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>250</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>30.2</v>
+      </c>
+      <c r="R62" t="s">
+        <v>251</v>
+      </c>
+      <c r="S62">
+        <v>11.95</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62">
+        <v>8.93</v>
+      </c>
+      <c r="V62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="2">
+        <v>44906</v>
+      </c>
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>5.71</v>
+      </c>
+      <c r="H63" t="s">
+        <v>228</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>11</v>
+      </c>
+      <c r="K63" t="s">
+        <v>248</v>
+      </c>
+      <c r="L63">
+        <v>28.55</v>
+      </c>
+      <c r="M63">
+        <v>20</v>
+      </c>
+      <c r="N63">
+        <v>48.55</v>
+      </c>
+      <c r="O63" t="s">
+        <v>250</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="R63" t="s">
+        <v>251</v>
+      </c>
+      <c r="S63">
+        <v>17.66</v>
+      </c>
+      <c r="T63">
+        <v>3</v>
+      </c>
+      <c r="U63">
+        <v>11.95</v>
+      </c>
+      <c r="V63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E64" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>229</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>31</v>
+      </c>
+      <c r="K64" t="s">
+        <v>247</v>
+      </c>
+      <c r="L64">
+        <v>10</v>
+      </c>
+      <c r="M64">
+        <v>20</v>
+      </c>
+      <c r="N64">
+        <v>30</v>
+      </c>
+      <c r="O64" t="s">
+        <v>249</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>90</v>
+      </c>
+      <c r="R64" t="s">
+        <v>256</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E65" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>196</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65" t="s">
+        <v>247</v>
+      </c>
+      <c r="L65">
+        <v>80</v>
+      </c>
+      <c r="M65">
+        <v>20</v>
+      </c>
+      <c r="N65">
+        <v>100</v>
+      </c>
+      <c r="O65" t="s">
+        <v>249</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>300</v>
+      </c>
+      <c r="R65" t="s">
+        <v>172</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E66" t="s">
+        <v>170</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>230</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>59</v>
+      </c>
+      <c r="K66" t="s">
+        <v>247</v>
+      </c>
+      <c r="L66">
+        <v>10</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>10</v>
+      </c>
+      <c r="O66" t="s">
+        <v>249</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>30</v>
+      </c>
+      <c r="R66" t="s">
+        <v>254</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E67" t="s">
+        <v>171</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>16.01</v>
+      </c>
+      <c r="H67" t="s">
+        <v>231</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>58</v>
+      </c>
+      <c r="K67" t="s">
+        <v>247</v>
+      </c>
+      <c r="L67">
+        <v>80.05000000000001</v>
+      </c>
+      <c r="M67">
+        <v>20</v>
+      </c>
+      <c r="N67">
+        <v>100.05</v>
+      </c>
+      <c r="O67" t="s">
+        <v>249</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>300.15</v>
+      </c>
+      <c r="R67" t="s">
+        <v>251</v>
+      </c>
+      <c r="S67">
+        <v>16.01</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="2">
+        <v>44906</v>
+      </c>
+      <c r="E68" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>3.09</v>
+      </c>
+      <c r="H68" t="s">
+        <v>232</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>28</v>
+      </c>
+      <c r="K68" t="s">
+        <v>248</v>
+      </c>
+      <c r="L68">
+        <v>15.45</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>15.45</v>
+      </c>
+      <c r="O68" t="s">
+        <v>250</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>30.9</v>
+      </c>
+      <c r="R68" t="s">
+        <v>251</v>
+      </c>
+      <c r="S68">
+        <v>19.1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>16.01</v>
+      </c>
+      <c r="V68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="2">
+        <v>44906</v>
+      </c>
+      <c r="E69" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>16.01</v>
+      </c>
+      <c r="H69" t="s">
+        <v>233</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>29</v>
+      </c>
+      <c r="K69" t="s">
+        <v>248</v>
+      </c>
+      <c r="L69">
+        <v>80.05000000000001</v>
+      </c>
+      <c r="M69">
+        <v>20</v>
+      </c>
+      <c r="N69">
+        <v>100.05</v>
+      </c>
+      <c r="O69" t="s">
+        <v>250</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>200.1</v>
+      </c>
+      <c r="R69" t="s">
+        <v>251</v>
+      </c>
+      <c r="S69">
+        <v>35.11</v>
+      </c>
+      <c r="T69">
+        <v>2</v>
+      </c>
+      <c r="U69">
+        <v>19.1</v>
+      </c>
+      <c r="V69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E70" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>225</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70" t="s">
+        <v>247</v>
+      </c>
+      <c r="L70">
+        <v>10</v>
+      </c>
+      <c r="M70">
+        <v>20</v>
+      </c>
+      <c r="N70">
+        <v>30</v>
+      </c>
+      <c r="O70" t="s">
+        <v>249</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>90</v>
+      </c>
+      <c r="R70" t="s">
+        <v>251</v>
+      </c>
+      <c r="S70">
+        <v>2</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E71" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>189</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>247</v>
+      </c>
+      <c r="L71">
+        <v>20</v>
+      </c>
+      <c r="M71">
+        <v>20</v>
+      </c>
+      <c r="N71">
+        <v>40</v>
+      </c>
+      <c r="O71" t="s">
+        <v>249</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>120</v>
+      </c>
+      <c r="R71" t="s">
+        <v>253</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E72" t="s">
+        <v>169</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>6.48</v>
+      </c>
+      <c r="H72" t="s">
+        <v>234</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>28</v>
+      </c>
+      <c r="K72" t="s">
+        <v>247</v>
+      </c>
+      <c r="L72">
+        <v>32.40000000000001</v>
+      </c>
+      <c r="M72">
+        <v>20</v>
+      </c>
+      <c r="N72">
+        <v>52.40000000000001</v>
+      </c>
+      <c r="O72" t="s">
+        <v>249</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>157.2</v>
+      </c>
+      <c r="R72" t="s">
+        <v>251</v>
+      </c>
+      <c r="S72">
+        <v>6.48</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E73" t="s">
+        <v>169</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>2.75</v>
+      </c>
+      <c r="H73" t="s">
+        <v>235</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>35</v>
+      </c>
+      <c r="K73" t="s">
+        <v>247</v>
+      </c>
+      <c r="L73">
+        <v>13.75</v>
+      </c>
+      <c r="M73">
+        <v>20</v>
+      </c>
+      <c r="N73">
+        <v>33.75</v>
+      </c>
+      <c r="O73" t="s">
+        <v>249</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>101.25</v>
+      </c>
+      <c r="R73" t="s">
+        <v>251</v>
+      </c>
+      <c r="S73">
+        <v>2.75</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E74" t="s">
+        <v>169</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>2.65</v>
+      </c>
+      <c r="H74" t="s">
+        <v>236</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>35</v>
+      </c>
+      <c r="K74" t="s">
+        <v>247</v>
+      </c>
+      <c r="L74">
+        <v>13.25</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>13.25</v>
+      </c>
+      <c r="O74" t="s">
+        <v>249</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>39.75</v>
+      </c>
+      <c r="R74" t="s">
+        <v>251</v>
+      </c>
+      <c r="S74">
+        <v>5.4</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>2.75</v>
+      </c>
+      <c r="V74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E75" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0.13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>237</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75" t="s">
+        <v>247</v>
+      </c>
+      <c r="L75">
+        <v>0.65</v>
+      </c>
+      <c r="M75">
+        <v>20</v>
+      </c>
+      <c r="N75">
+        <v>20.65</v>
+      </c>
+      <c r="O75" t="s">
+        <v>249</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>61.95</v>
+      </c>
+      <c r="R75" t="s">
+        <v>251</v>
+      </c>
+      <c r="S75">
+        <v>0.13</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E76" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1.96</v>
+      </c>
+      <c r="H76" t="s">
+        <v>238</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>25</v>
+      </c>
+      <c r="K76" t="s">
+        <v>247</v>
+      </c>
+      <c r="L76">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="M76">
+        <v>20</v>
+      </c>
+      <c r="N76">
+        <v>29.8</v>
+      </c>
+      <c r="O76" t="s">
+        <v>249</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="R76" t="s">
+        <v>251</v>
+      </c>
+      <c r="S76">
+        <v>1.96</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E77" t="s">
+        <v>171</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>5.03</v>
+      </c>
+      <c r="H77" t="s">
+        <v>239</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>44</v>
+      </c>
+      <c r="K77" t="s">
+        <v>247</v>
+      </c>
+      <c r="L77">
+        <v>25.15</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>25.15</v>
+      </c>
+      <c r="O77" t="s">
+        <v>249</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>75.45</v>
+      </c>
+      <c r="R77" t="s">
+        <v>251</v>
+      </c>
+      <c r="S77">
+        <v>5.03</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E78" t="s">
+        <v>170</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>240</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s">
+        <v>247</v>
+      </c>
+      <c r="L78">
+        <v>40</v>
+      </c>
+      <c r="M78">
+        <v>20</v>
+      </c>
+      <c r="N78">
+        <v>60</v>
+      </c>
+      <c r="O78" t="s">
+        <v>249</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>180</v>
+      </c>
+      <c r="R78" t="s">
+        <v>256</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E79" t="s">
+        <v>173</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>39.22</v>
+      </c>
+      <c r="H79" t="s">
+        <v>241</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>36</v>
+      </c>
+      <c r="K79" t="s">
+        <v>247</v>
+      </c>
+      <c r="L79">
+        <v>39.22</v>
+      </c>
+      <c r="M79">
+        <v>20</v>
+      </c>
+      <c r="N79">
+        <v>59.22</v>
+      </c>
+      <c r="O79" t="s">
+        <v>249</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>177.66</v>
+      </c>
+      <c r="R79" t="s">
+        <v>173</v>
+      </c>
+      <c r="S79">
+        <v>39.22</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E80" t="s">
+        <v>171</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1.68</v>
+      </c>
+      <c r="H80" t="s">
+        <v>242</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s">
+        <v>247</v>
+      </c>
+      <c r="L80">
+        <v>8.4</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>8.4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>249</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>25.2</v>
+      </c>
+      <c r="R80" t="s">
+        <v>251</v>
+      </c>
+      <c r="S80">
+        <v>1.68</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>9.02</v>
+      </c>
+      <c r="H81" t="s">
+        <v>243</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>51</v>
+      </c>
+      <c r="K81" t="s">
+        <v>247</v>
+      </c>
+      <c r="L81">
+        <v>45.09999999999999</v>
+      </c>
+      <c r="M81">
+        <v>20</v>
+      </c>
+      <c r="N81">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="O81" t="s">
+        <v>249</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>195.3</v>
+      </c>
+      <c r="R81" t="s">
+        <v>251</v>
+      </c>
+      <c r="S81">
+        <v>10.7</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="U81">
+        <v>1.68</v>
+      </c>
+      <c r="V81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" s="2">
+        <v>44906</v>
+      </c>
+      <c r="E82" t="s">
+        <v>169</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>244</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>10</v>
+      </c>
+      <c r="K82" t="s">
+        <v>248</v>
+      </c>
+      <c r="L82">
+        <v>5</v>
+      </c>
+      <c r="M82">
+        <v>20</v>
+      </c>
+      <c r="N82">
+        <v>25</v>
+      </c>
+      <c r="O82" t="s">
+        <v>250</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>50</v>
+      </c>
+      <c r="R82" t="s">
+        <v>251</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E83" t="s">
+        <v>170</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>245</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>54</v>
+      </c>
+      <c r="K83" t="s">
+        <v>247</v>
+      </c>
+      <c r="L83">
+        <v>10</v>
+      </c>
+      <c r="M83">
+        <v>20</v>
+      </c>
+      <c r="N83">
+        <v>30</v>
+      </c>
+      <c r="O83" t="s">
+        <v>249</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>90</v>
+      </c>
+      <c r="R83" t="s">
+        <v>252</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E84" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>9.99</v>
+      </c>
+      <c r="H84" t="s">
+        <v>246</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>41</v>
+      </c>
+      <c r="K84" t="s">
+        <v>247</v>
+      </c>
+      <c r="L84">
+        <v>49.95</v>
+      </c>
+      <c r="M84">
+        <v>20</v>
+      </c>
+      <c r="N84">
         <v>69.95</v>
       </c>
-      <c r="O34" t="s">
-        <v>126</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+      <c r="O84" t="s">
+        <v>249</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
         <v>209.85</v>
       </c>
-      <c r="R34" t="s">
-        <v>127</v>
-      </c>
-      <c r="S34">
+      <c r="R84" t="s">
+        <v>251</v>
+      </c>
+      <c r="S84">
         <v>9.99</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34" t="b">
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E85" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>200</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>45</v>
+      </c>
+      <c r="K85" t="s">
+        <v>247</v>
+      </c>
+      <c r="L85">
+        <v>10</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>10</v>
+      </c>
+      <c r="O85" t="s">
+        <v>249</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>30</v>
+      </c>
+      <c r="R85" t="s">
+        <v>256</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/data_all.xlsx
+++ b/data/data_all.xlsx
@@ -6861,12 +6861,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>/activities/8231631411</t>
+          <t>/activities/8233502894</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DIVYA TALUR</t>
+          <t>Damien Lorigan</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -6886,18 +6886,18 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>7.56</v>
+        <v>2.56</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>01:26:00</t>
+          <t>00:32:12</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6905,13 +6905,13 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>37.8</v>
+        <v>12.8</v>
       </c>
       <c r="M74" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>57.8</v>
+        <v>12.8</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>173.4</v>
+        <v>38.40000000000001</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>7.56</v>
+        <v>2.56</v>
       </c>
       <c r="T74" t="n">
         <v>0</v>
@@ -6946,7 +6946,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>/activities/8233502894</t>
+          <t>/activities/8231999205</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6971,57 +6971,57 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>03:08:00</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="M75" t="n">
+        <v>20</v>
+      </c>
+      <c r="N75" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>3X</t>
+        </is>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>257.7</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S75" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+      <c r="U75" t="n">
         <v>2.56</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>00:32:12</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>32</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>3X</t>
-        </is>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>38.40000000000001</v>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>Run/Walk</t>
-        </is>
-      </c>
-      <c r="S75" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T75" t="n">
-        <v>0</v>
-      </c>
-      <c r="U75" t="n">
-        <v>0</v>
       </c>
       <c r="V75" t="b">
         <v>0</v>
@@ -7031,7 +7031,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>/activities/8231999205</t>
+          <t>/activities/8237654388</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7045,7 +7045,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7056,43 +7056,43 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>13.18</v>
+        <v>2.46</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>03:08:00</t>
+          <t>0:33:23</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>65.90000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="M76" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>85.90000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>3X</t>
+          <t>2X</t>
         </is>
       </c>
       <c r="P76" t="b">
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>257.7</v>
+        <v>24.6</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -7100,13 +7100,13 @@
         </is>
       </c>
       <c r="S76" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2</v>
+      </c>
+      <c r="U76" t="n">
         <v>15.74</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1</v>
-      </c>
-      <c r="U76" t="n">
-        <v>2.56</v>
       </c>
       <c r="V76" t="b">
         <v>0</v>
@@ -7116,7 +7116,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>/activities/8237654388</t>
+          <t>/activities/8235873977</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7138,21 +7138,21 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>2.46</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0:33:23</t>
+          <t>1:53:00</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7160,13 +7160,13 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>12.3</v>
+        <v>40.7</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N77" t="n">
-        <v>12.3</v>
+        <v>60.7</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>24.6</v>
+        <v>121.4</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="S77" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3</v>
+      </c>
+      <c r="U77" t="n">
         <v>18.2</v>
-      </c>
-      <c r="T77" t="n">
-        <v>2</v>
-      </c>
-      <c r="U77" t="n">
-        <v>15.74</v>
       </c>
       <c r="V77" t="b">
         <v>0</v>
@@ -7201,7 +7201,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>/activities/8235873977</t>
+          <t>/activities/8241117092</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7223,46 +7223,46 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>8.140000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1:53:00</t>
+          <t>0:14:22</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>40.7</v>
+        <v>6.5</v>
       </c>
       <c r="M78" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>60.7</v>
+        <v>6.5</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2X</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P78" t="b">
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>121.4</v>
+        <v>6.5</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -7270,23 +7270,27 @@
         </is>
       </c>
       <c r="S78" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="T78" t="n">
+        <v>4</v>
+      </c>
+      <c r="U78" t="n">
         <v>26.34</v>
       </c>
-      <c r="T78" t="n">
-        <v>3</v>
-      </c>
-      <c r="U78" t="n">
-        <v>18.2</v>
-      </c>
       <c r="V78" t="b">
         <v>0</v>
       </c>
-      <c r="W78" t="inlineStr"/>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Evening Walk</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>/activities/8241117092</t>
+          <t>/activities/8238692904</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -7308,21 +7312,21 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0:14:22</t>
+          <t>0:17:41</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7330,13 +7334,13 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6.5</v>
+        <v>7.95</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N79" t="n">
-        <v>6.5</v>
+        <v>27.95</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7347,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>6.5</v>
+        <v>27.95</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -7355,27 +7359,27 @@
         </is>
       </c>
       <c r="S79" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="T79" t="n">
+        <v>5</v>
+      </c>
+      <c r="U79" t="n">
         <v>27.64</v>
       </c>
-      <c r="T79" t="n">
-        <v>4</v>
-      </c>
-      <c r="U79" t="n">
-        <v>26.34</v>
-      </c>
       <c r="V79" t="b">
         <v>0</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>Evening Walk</t>
+          <t>Morning Walk</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>/activities/8238692904</t>
+          <t>/activities/8242494296</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -7389,7 +7393,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7397,35 +7401,35 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0:17:41</t>
+          <t>0:20:09</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>7.95</v>
+        <v>9.350000000000001</v>
       </c>
       <c r="M80" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>27.95</v>
+        <v>9.350000000000001</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7436,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>27.95</v>
+        <v>9.350000000000001</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -7444,13 +7448,13 @@
         </is>
       </c>
       <c r="S80" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="T80" t="n">
+        <v>6</v>
+      </c>
+      <c r="U80" t="n">
         <v>29.23</v>
-      </c>
-      <c r="T80" t="n">
-        <v>5</v>
-      </c>
-      <c r="U80" t="n">
-        <v>27.64</v>
       </c>
       <c r="V80" t="b">
         <v>0</v>
@@ -7464,7 +7468,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>/activities/8242494296</t>
+          <t>/activities/8243987842</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -7486,35 +7490,35 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0:20:09</t>
+          <t>0:19:18</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
+        <v>19</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>9.399999999999999</v>
+      </c>
+      <c r="M81" t="n">
         <v>20</v>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>9.350000000000001</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
       <c r="N81" t="n">
-        <v>9.350000000000001</v>
+        <v>29.4</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7525,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>9.350000000000001</v>
+        <v>29.4</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -7533,88 +7537,88 @@
         </is>
       </c>
       <c r="S81" t="n">
+        <v>32.98</v>
+      </c>
+      <c r="T81" t="n">
+        <v>7</v>
+      </c>
+      <c r="U81" t="n">
         <v>31.1</v>
       </c>
-      <c r="T81" t="n">
-        <v>6</v>
-      </c>
-      <c r="U81" t="n">
-        <v>29.23</v>
-      </c>
       <c r="V81" t="b">
         <v>0</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>Morning Walk</t>
+          <t>Afternoon Walk</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>/activities/8243987842</t>
+          <t>/activities/8235800250</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Damien Lorigan</t>
+          <t>Dio Goldoni</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Unstoppable 9</t>
+          <t>Pace Makers</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44908</v>
+        <v>44906</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1.88</v>
+        <v>8.65</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0:19:18</t>
+          <t>0:45:08</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>9.399999999999999</v>
+        <v>43.25</v>
       </c>
       <c r="M82" t="n">
         <v>20</v>
       </c>
       <c r="N82" t="n">
-        <v>29.4</v>
+        <v>63.25</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2X</t>
         </is>
       </c>
       <c r="P82" t="b">
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>29.4</v>
+        <v>126.5</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -7622,88 +7626,84 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>32.98</v>
+        <v>8.65</v>
       </c>
       <c r="T82" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="V82" t="b">
         <v>0</v>
       </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>Afternoon Walk</t>
-        </is>
-      </c>
+      <c r="W82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>/activities/8235800250</t>
+          <t>/activities/8231631411</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Dio Goldoni</t>
+          <t>Divya Tallur</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Pace Makers</t>
+          <t>Unstoppable 9</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44906</v>
+        <v>44905</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>8.65</v>
+        <v>7.56</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0:45:08</t>
+          <t>01:26:00</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>43.25</v>
+        <v>37.8</v>
       </c>
       <c r="M83" t="n">
         <v>20</v>
       </c>
       <c r="N83" t="n">
-        <v>63.25</v>
+        <v>57.8</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2X</t>
+          <t>3X</t>
         </is>
       </c>
       <c r="P83" t="b">
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>126.5</v>
+        <v>173.4</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>8.65</v>
+        <v>7.56</v>
       </c>
       <c r="T83" t="n">
         <v>0</v>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Waiting Room</t>
+          <t>Unstoppable 9</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -7826,7 +7826,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Waiting Room</t>
+          <t>Unstoppable 9</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
@@ -11308,7 +11308,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>/activities/8238265427</t>
+          <t>/activities/8238264549</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -11337,14 +11337,14 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>1:06:00</t>
+          <t>1:05:00</t>
         </is>
       </c>
       <c r="I125" t="n">
         <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>/activities/8238264549</t>
+          <t>/activities/8238265427</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -11426,14 +11426,14 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>1:05:00</t>
+          <t>1:06:00</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>20</v>
       </c>
       <c r="N310" t="n">
-        <v>42.59999999999999</v>
+        <v>42.6</v>
       </c>
       <c r="O310" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Q310" t="n">
-        <v>42.59999999999999</v>
+        <v>42.6</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>

--- a/data/data_all.xlsx
+++ b/data/data_all.xlsx
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Andrew CD</t>
+          <t>Andrew Cd</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Andrew CD</t>
+          <t>Andrew Cd</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Andrew CD</t>
+          <t>Andrew Cd</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Andrew CD</t>
+          <t>Andrew Cd</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Andrew CD</t>
+          <t>Andrew Cd</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Andrew CD</t>
+          <t>Andrew Cd</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Andrew CD</t>
+          <t>Andrew Cd</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Andrew CD</t>
+          <t>Andrew Cd</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -18754,7 +18754,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>RAVINDER SINGH BISHT</t>
+          <t>Ravinder Singh Bisht</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -18839,7 +18839,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>RAVINDER SINGH BISHT</t>
+          <t>Ravinder Singh Bisht</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -18924,7 +18924,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>RAVINDER SINGH BISHT</t>
+          <t>Ravinder Singh Bisht</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -19013,7 +19013,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>RAVINDER SINGH BISHT</t>
+          <t>Ravinder Singh Bisht</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -19102,7 +19102,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>RAVINDER SINGH BISHT</t>
+          <t>Ravinder Singh Bisht</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -22590,7 +22590,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Saranraj SP</t>
+          <t>Saranraj Sp</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -22675,7 +22675,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Saranraj SP</t>
+          <t>Saranraj Sp</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -22764,7 +22764,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Saranraj SP</t>
+          <t>Saranraj Sp</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -23723,7 +23723,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Shailesh abecedarian</t>
+          <t>Shailesh Abecedarian</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Shailesh abecedarian</t>
+          <t>Shailesh Abecedarian</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -23893,7 +23893,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Shailesh abecedarian</t>
+          <t>Shailesh Abecedarian</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Shailesh abecedarian</t>
+          <t>Shailesh Abecedarian</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -24067,7 +24067,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Shailesh abecedarian</t>
+          <t>Shailesh Abecedarian</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -24156,7 +24156,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Shailesh abecedarian</t>
+          <t>Shailesh Abecedarian</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -24245,7 +24245,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Shailesh abecedarian</t>
+          <t>Shailesh Abecedarian</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -27648,7 +27648,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Tushar bhandari</t>
+          <t>Tushar Bhandari</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -27737,7 +27737,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Tushar bhandari</t>
+          <t>Tushar Bhandari</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -28862,7 +28862,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>craig friedman</t>
+          <t>Craig Friedman</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -28947,7 +28947,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>craig friedman</t>
+          <t>Craig Friedman</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -29032,7 +29032,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>craig friedman</t>
+          <t>Craig Friedman</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -29117,7 +29117,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>craig friedman</t>
+          <t>Craig Friedman</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -29206,7 +29206,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>craig friedman</t>
+          <t>Craig Friedman</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -29295,7 +29295,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>craig friedman</t>
+          <t>Craig Friedman</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>craig friedman</t>
+          <t>Craig Friedman</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -29473,7 +29473,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>craig friedman</t>
+          <t>Craig Friedman</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -29562,7 +29562,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>craig friedman</t>
+          <t>Craig Friedman</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -29651,7 +29651,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>leela krishna</t>
+          <t>Leela Krishna</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -29736,7 +29736,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>leela krishna</t>
+          <t>Leela Krishna</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -29825,7 +29825,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>leela krishna</t>
+          <t>Leela Krishna</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -29914,7 +29914,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>leela krishna</t>
+          <t>Leela Krishna</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -30003,7 +30003,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>leela krishna</t>
+          <t>Leela Krishna</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -30088,7 +30088,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>sathyanarayanan ragothaman</t>
+          <t>Sathyanarayanan Ragothaman</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -30177,7 +30177,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>sathyanarayanan ragothaman</t>
+          <t>Sathyanarayanan Ragothaman</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -30266,7 +30266,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>sathyanarayanan ragothaman</t>
+          <t>Sathyanarayanan Ragothaman</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -30351,7 +30351,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>sathyanarayanan ragothaman</t>
+          <t>Sathyanarayanan Ragothaman</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -30440,7 +30440,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>sathyanarayanan ragothaman</t>
+          <t>Sathyanarayanan Ragothaman</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -30529,7 +30529,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>sathyanarayanan ragothaman</t>
+          <t>Sathyanarayanan Ragothaman</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -30618,7 +30618,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>tinku sand</t>
+          <t>Tinku Sand</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -30703,7 +30703,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>tinku sand</t>
+          <t>Tinku Sand</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -30788,7 +30788,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>tinku sand</t>
+          <t>Tinku Sand</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -30877,7 +30877,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>tinku sand</t>
+          <t>Tinku Sand</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">

--- a/data/data_all.xlsx
+++ b/data/data_all.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W411"/>
+  <dimension ref="A1:W412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>/activities/8230265050</t>
+          <t>/activities/8230187565</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1530,25 +1530,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>5.03</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>00:22:54</t>
+          <t>00:29:09</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1556,13 +1556,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>25.15</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>45.15</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>135.45</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>5.03</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>/activities/8230187565</t>
+          <t>/activities/8230265050</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1615,25 +1615,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.03</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>00:29:09</t>
+          <t>00:22:54</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1641,13 +1641,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>25.15</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>45.15</v>
+        <v>10</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.45</v>
+        <v>30</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>5.03</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -1941,7 +1941,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>/activities/8245330636</t>
+          <t>/activities/8242898143</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1963,21 +1963,21 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1.12</v>
+        <v>5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0:13:09</t>
+          <t>0:44:47</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5.600000000000001</v>
+        <v>25</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>5.600000000000001</v>
+        <v>45</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.600000000000001</v>
+        <v>45</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>15.54</v>
+        <v>19.42</v>
       </c>
       <c r="T18" t="n">
         <v>5</v>
@@ -2023,14 +2023,14 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>Night Walk</t>
+          <t>Morning Walk + Jog</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>/activities/8242898143</t>
+          <t>/activities/8245330636</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2052,21 +2052,21 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>1.12</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0:44:47</t>
+          <t>0:13:09</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2074,13 +2074,13 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>25</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>45</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>45</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -2105,14 +2105,14 @@
         <v>6</v>
       </c>
       <c r="U19" t="n">
-        <v>15.54</v>
+        <v>19.42</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Morning Walk + Jog</t>
+          <t>Night Walk</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>/activities/8249041114</t>
+          <t>/activities/8249042044</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3193,14 +3193,14 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.13</v>
+        <v>2.67</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0:08:36</t>
+          <t>0:08:40</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -3215,13 +3215,13 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3.13</v>
+        <v>2.67</v>
       </c>
       <c r="M32" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>23.13</v>
+        <v>2.67</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>23.13</v>
+        <v>2.67</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>23.73</v>
+        <v>23.27</v>
       </c>
       <c r="T32" t="n">
         <v>1</v>
@@ -3260,7 +3260,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>/activities/8249042044</t>
+          <t>/activities/8249041114</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3282,14 +3282,14 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>2.67</v>
+        <v>3.13</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0:08:40</t>
+          <t>0:08:36</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -3304,13 +3304,13 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.67</v>
+        <v>3.13</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N33" t="n">
-        <v>2.67</v>
+        <v>23.13</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.67</v>
+        <v>23.13</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>23.73</v>
+        <v>23.27</v>
       </c>
       <c r="V33" t="b">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>/activities/8240096618</t>
+          <t>/activities/8241942827</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3537,25 +3537,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>0.71</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0:22:15</t>
+          <t>0:07:33</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3563,13 +3563,13 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>25</v>
+        <v>3.55</v>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>45</v>
+        <v>3.55</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>45</v>
+        <v>3.55</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>28.82</v>
+        <v>24.53</v>
       </c>
       <c r="T36" t="n">
         <v>2</v>
@@ -3601,14 +3601,14 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>~weekly 5k best effort attempt · Philadelphia, USA</t>
+          <t>Evening Walk · Philadelphia, USA</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>/activities/8241942827</t>
+          <t>/activities/8240096618</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3626,25 +3626,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>0.71</v>
+        <v>5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0:07:33</t>
+          <t>0:22:15</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3652,13 +3652,13 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.55</v>
+        <v>25</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N37" t="n">
-        <v>3.55</v>
+        <v>45</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.55</v>
+        <v>45</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3683,14 +3683,14 @@
         <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>28.82</v>
+        <v>24.53</v>
       </c>
       <c r="V37" t="b">
         <v>0</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>Evening Walk · Philadelphia, USA</t>
+          <t>~weekly 5k best effort attempt · Philadelphia, USA</t>
         </is>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>/activities/8231125629</t>
+          <t>/activities/8230766273</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4771,25 +4771,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>01:00:00</t>
+          <t>00:51:17</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N50" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>/activities/8230766273</t>
+          <t>/activities/8231125629</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4856,25 +4856,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>00:51:17</t>
+          <t>01:00:00</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4882,13 +4882,13 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M51" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="b">
         <v>0</v>
@@ -5631,7 +5631,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>/activities/8236438154</t>
+          <t>/activities/8236418678</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5653,21 +5653,21 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>2.68</v>
+        <v>2.81</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0:43:21</t>
+          <t>0:44:41</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5675,13 +5675,13 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>13.4</v>
+        <v>14.05</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N60" t="n">
-        <v>13.4</v>
+        <v>34.05</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>26.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>2.68</v>
+        <v>2.81</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
@@ -5720,7 +5720,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>/activities/8236418678</t>
+          <t>/activities/8236438154</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5742,21 +5742,21 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>2.81</v>
+        <v>2.68</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0:44:41</t>
+          <t>0:43:21</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5764,13 +5764,13 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>14.05</v>
+        <v>13.4</v>
       </c>
       <c r="M61" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>34.05</v>
+        <v>13.4</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>68.09999999999999</v>
+        <v>26.8</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="U61" t="n">
-        <v>2.68</v>
+        <v>2.81</v>
       </c>
       <c r="V61" t="b">
         <v>0</v>
@@ -5809,7 +5809,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>/activities/8236450629</t>
+          <t>/activities/8231713523</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1:03:00</t>
+          <t>01:03:00</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5856,10 +5856,10 @@
         <v>20</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N62" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>/activities/8231713523</t>
+          <t>/activities/8236450629</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>01:03:00</t>
+          <t>1:03:00</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5941,10 +5941,10 @@
         <v>20</v>
       </c>
       <c r="M63" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>/activities/8229963492</t>
+          <t>/activities/8234049322</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -6627,18 +6627,18 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>4.19</v>
+        <v>3.69</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0:50:50</t>
+          <t>0:47:59</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6646,13 +6646,13 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>20.95</v>
+        <v>18.45</v>
       </c>
       <c r="M71" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>40.95</v>
+        <v>18.45</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>122.85</v>
+        <v>55.34999999999999</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>4.19</v>
+        <v>3.69</v>
       </c>
       <c r="T71" t="n">
         <v>0</v>
@@ -6684,14 +6684,14 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>Afternoon Walk  · Tiruporur, India</t>
+          <t>Lunch Walk</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>/activities/8234049322</t>
+          <t>/activities/8229963492</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -6716,18 +6716,18 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>3.69</v>
+        <v>4.19</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0:47:59</t>
+          <t>0:50:50</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6735,13 +6735,13 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>18.45</v>
+        <v>20.95</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N72" t="n">
-        <v>18.45</v>
+        <v>40.95</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>55.34999999999999</v>
+        <v>122.85</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -6766,14 +6766,14 @@
         <v>1</v>
       </c>
       <c r="U72" t="n">
-        <v>4.19</v>
+        <v>3.69</v>
       </c>
       <c r="V72" t="b">
         <v>0</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>Lunch Walk</t>
+          <t>Afternoon Walk  · Tiruporur, India</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>/activities/8250242879</t>
+          <t>/activities/8247388330</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -8540,7 +8540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>/activities/8247388330</t>
+          <t>/activities/8250242879</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -8807,7 +8807,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>/activities/8231999205</t>
+          <t>/activities/8233502894</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -8832,18 +8832,18 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>13.18</v>
+        <v>2.56</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>03:08:00</t>
+          <t>00:32:12</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -8851,13 +8851,13 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>65.90000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="M96" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>85.90000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>257.7</v>
+        <v>38.40000000000001</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>13.18</v>
+        <v>2.56</v>
       </c>
       <c r="T96" t="n">
         <v>0</v>
@@ -8892,7 +8892,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>/activities/8233502894</t>
+          <t>/activities/8231999205</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -8917,18 +8917,18 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>2.56</v>
+        <v>13.18</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>00:32:12</t>
+          <t>03:08:00</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -8936,13 +8936,13 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>12.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N97" t="n">
-        <v>12.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>38.40000000000001</v>
+        <v>257.7</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>1</v>
       </c>
       <c r="U97" t="n">
-        <v>13.18</v>
+        <v>2.56</v>
       </c>
       <c r="V97" t="b">
         <v>0</v>
@@ -8977,7 +8977,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>/activities/8235873977</t>
+          <t>/activities/8237654388</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -8999,21 +8999,21 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>8.140000000000001</v>
+        <v>2.46</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1:53:00</t>
+          <t>0:33:23</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9021,13 +9021,13 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>40.7</v>
+        <v>12.3</v>
       </c>
       <c r="M98" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>60.7</v>
+        <v>12.3</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>121.4</v>
+        <v>24.6</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>23.88</v>
+        <v>18.2</v>
       </c>
       <c r="T98" t="n">
         <v>2</v>
@@ -9062,7 +9062,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>/activities/8237654388</t>
+          <t>/activities/8235873977</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -9084,21 +9084,21 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>2.46</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0:33:23</t>
+          <t>1:53:00</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9106,13 +9106,13 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>12.3</v>
+        <v>40.7</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N99" t="n">
-        <v>12.3</v>
+        <v>60.7</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>24.6</v>
+        <v>121.4</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>3</v>
       </c>
       <c r="U99" t="n">
-        <v>23.88</v>
+        <v>18.2</v>
       </c>
       <c r="V99" t="b">
         <v>0</v>
@@ -9147,7 +9147,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>/activities/8238692904</t>
+          <t>/activities/8241117092</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -9169,21 +9169,21 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0:17:41</t>
+          <t>0:14:22</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9191,13 +9191,13 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>7.95</v>
+        <v>6.5</v>
       </c>
       <c r="M100" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>27.95</v>
+        <v>6.5</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>27.95</v>
+        <v>6.5</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>27.93</v>
+        <v>27.64</v>
       </c>
       <c r="T100" t="n">
         <v>4</v>
@@ -9229,14 +9229,14 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Morning Walk</t>
+          <t>Evening Walk</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>/activities/8241117092</t>
+          <t>/activities/8238692904</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -9258,21 +9258,21 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0:14:22</t>
+          <t>0:17:41</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9280,13 +9280,13 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>6.5</v>
+        <v>7.95</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N101" t="n">
-        <v>6.5</v>
+        <v>27.95</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>6.5</v>
+        <v>27.95</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -9311,14 +9311,14 @@
         <v>5</v>
       </c>
       <c r="U101" t="n">
-        <v>27.93</v>
+        <v>27.64</v>
       </c>
       <c r="V101" t="b">
         <v>0</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>Evening Walk</t>
+          <t>Morning Walk</t>
         </is>
       </c>
     </row>
@@ -12384,7 +12384,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>/activities/8238655543</t>
+          <t>/activities/8240505401</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -12406,21 +12406,21 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0.99</v>
+        <v>1.28</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0:08:20</t>
+          <t>0:14:41</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -12428,13 +12428,13 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>4.95</v>
+        <v>6.4</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N137" t="n">
-        <v>4.95</v>
+        <v>26.4</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>0</v>
       </c>
       <c r="Q137" t="n">
-        <v>4.95</v>
+        <v>26.4</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>11.74</v>
+        <v>12.03</v>
       </c>
       <c r="T137" t="n">
         <v>1</v>
@@ -12466,14 +12466,14 @@
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>Morning Walk · District of Bratislava I, Region of Bratislava</t>
+          <t>Evening Walk · District of Bratislava I, Region of Bratislava</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>/activities/8240505401</t>
+          <t>/activities/8238655543</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -12495,21 +12495,21 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1.28</v>
+        <v>0.99</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0:14:41</t>
+          <t>0:08:20</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -12517,13 +12517,13 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>6.4</v>
+        <v>4.95</v>
       </c>
       <c r="M138" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>26.4</v>
+        <v>4.95</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>0</v>
       </c>
       <c r="Q138" t="n">
-        <v>26.4</v>
+        <v>4.95</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -12548,14 +12548,14 @@
         <v>2</v>
       </c>
       <c r="U138" t="n">
-        <v>11.74</v>
+        <v>12.03</v>
       </c>
       <c r="V138" t="b">
         <v>0</v>
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>Evening Walk · District of Bratislava I, Region of Bratislava</t>
+          <t>Morning Walk · District of Bratislava I, Region of Bratislava</t>
         </is>
       </c>
     </row>
@@ -14144,7 +14144,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>/activities/8238264445</t>
+          <t>/activities/8238264497</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -14169,18 +14169,18 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0:36:38</t>
+          <t>0:17:49</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14188,13 +14188,13 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M157" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N157" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="Q157" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T157" t="n">
         <v>0</v>
@@ -14233,7 +14233,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>/activities/8238264497</t>
+          <t>/activities/8238264445</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -14258,18 +14258,18 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0:17:49</t>
+          <t>0:36:38</t>
         </is>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14277,13 +14277,13 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N158" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>0</v>
       </c>
       <c r="Q158" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="U158" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V158" t="b">
         <v>0</v>
@@ -14344,7 +14344,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
         <v>6.5</v>
@@ -14369,10 +14369,10 @@
         <v>32.5</v>
       </c>
       <c r="M159" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>52.5</v>
+        <v>32.5</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>0</v>
       </c>
       <c r="Q159" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
         <v>6.5</v>
@@ -14458,10 +14458,10 @@
         <v>32.5</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N160" t="n">
-        <v>32.5</v>
+        <v>52.5</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>0</v>
       </c>
       <c r="Q160" t="n">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
         <v>3.2</v>
@@ -14636,10 +14636,10 @@
         <v>16</v>
       </c>
       <c r="M162" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N162" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="Q162" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
         <v>3.2</v>
@@ -14725,10 +14725,10 @@
         <v>16</v>
       </c>
       <c r="M163" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N163" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="Q163" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>/activities/8249617828</t>
+          <t>/activities/8248715492</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -15485,25 +15485,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>7.22</v>
+        <v>4.13</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0:38:06</t>
+          <t>0:58:34</t>
         </is>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -15511,13 +15511,13 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>36.1</v>
+        <v>20.65</v>
       </c>
       <c r="M172" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N172" t="n">
-        <v>56.1</v>
+        <v>20.65</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>0</v>
       </c>
       <c r="Q172" t="n">
-        <v>56.1</v>
+        <v>20.65</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>49.26</v>
+        <v>46.17</v>
       </c>
       <c r="T172" t="n">
         <v>6</v>
@@ -15549,14 +15549,14 @@
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Lunch Walk</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>/activities/8248715492</t>
+          <t>/activities/8249617828</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -15574,25 +15574,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>4.13</v>
+        <v>7.22</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0:58:34</t>
+          <t>0:38:06</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -15600,13 +15600,13 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>20.65</v>
+        <v>36.1</v>
       </c>
       <c r="M173" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N173" t="n">
-        <v>20.65</v>
+        <v>56.1</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>0</v>
       </c>
       <c r="Q173" t="n">
-        <v>20.65</v>
+        <v>56.1</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -15631,14 +15631,14 @@
         <v>7</v>
       </c>
       <c r="U173" t="n">
-        <v>49.26</v>
+        <v>46.17</v>
       </c>
       <c r="V173" t="b">
         <v>0</v>
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>Lunch Walk</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
     </row>
@@ -16960,7 +16960,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>/activities/8229707266</t>
+          <t>/activities/8230794399</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -16985,18 +16985,18 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>01:40:00</t>
+          <t>00:53:43</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -17004,13 +17004,13 @@
         </is>
       </c>
       <c r="L189" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M189" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>0</v>
       </c>
       <c r="Q189" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T189" t="n">
         <v>0</v>
@@ -17045,7 +17045,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>/activities/8230794399</t>
+          <t>/activities/8229707266</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -17070,18 +17070,18 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>00:53:43</t>
+          <t>01:40:00</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17089,13 +17089,13 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M190" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N190" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>0</v>
       </c>
       <c r="Q190" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>1</v>
       </c>
       <c r="U190" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="V190" t="b">
         <v>0</v>
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
         <v>5</v>
@@ -17177,10 +17177,10 @@
         <v>25</v>
       </c>
       <c r="M191" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N191" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>0</v>
       </c>
       <c r="Q191" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
         <v>5</v>
@@ -17262,10 +17262,10 @@
         <v>25</v>
       </c>
       <c r="M192" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N192" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>0</v>
       </c>
       <c r="Q192" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
         <v>5</v>
@@ -17436,10 +17436,10 @@
         <v>25</v>
       </c>
       <c r="M194" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N194" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>0</v>
       </c>
       <c r="Q194" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
         <v>5</v>
@@ -17525,10 +17525,10 @@
         <v>25</v>
       </c>
       <c r="M195" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N195" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>0</v>
       </c>
       <c r="Q195" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>/activities/8246213937</t>
+          <t>/activities/8248092240</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -17596,14 +17596,14 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>0:46:38</t>
+          <t>0:47:21</t>
         </is>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -17649,14 +17649,14 @@
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>Day 5 : Morning walk · Bengaluru, India</t>
+          <t>Day 5 : Night walk · Bengaluru, India</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>/activities/8248092240</t>
+          <t>/activities/8246213937</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -17685,14 +17685,14 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>0:47:21</t>
+          <t>0:46:38</t>
         </is>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -17738,14 +17738,14 @@
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>Day 5 : Night walk · Bengaluru, India</t>
+          <t>Day 5 : Morning walk · Bengaluru, India</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>/activities/8251527401</t>
+          <t>/activities/8250229625</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -17767,21 +17767,21 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>0:47:04</t>
+          <t>0:46:56</t>
         </is>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -17789,13 +17789,13 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>25.05</v>
+        <v>25</v>
       </c>
       <c r="M198" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N198" t="n">
-        <v>45.05</v>
+        <v>25</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>0</v>
       </c>
       <c r="Q198" t="n">
-        <v>45.05</v>
+        <v>25</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>62.02</v>
+        <v>62.01</v>
       </c>
       <c r="T198" t="n">
         <v>9</v>
@@ -17827,14 +17827,14 @@
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>Day 6 : Night walk · Bengaluru, India</t>
+          <t>Day 6 : Morning walk · Bengaluru, India</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>/activities/8250229625</t>
+          <t>/activities/8251527401</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -17856,21 +17856,21 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>5</v>
+        <v>5.01</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>0:46:56</t>
+          <t>0:47:04</t>
         </is>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -17878,13 +17878,13 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>25</v>
+        <v>25.05</v>
       </c>
       <c r="M199" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N199" t="n">
-        <v>25</v>
+        <v>45.05</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>0</v>
       </c>
       <c r="Q199" t="n">
-        <v>25</v>
+        <v>45.05</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -17909,14 +17909,14 @@
         <v>10</v>
       </c>
       <c r="U199" t="n">
-        <v>62.02</v>
+        <v>62.01</v>
       </c>
       <c r="V199" t="b">
         <v>0</v>
       </c>
       <c r="W199" t="inlineStr">
         <is>
-          <t>Day 6 : Morning walk · Bengaluru, India</t>
+          <t>Day 6 : Night walk · Bengaluru, India</t>
         </is>
       </c>
     </row>
@@ -20112,7 +20112,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>/activities/8253172792</t>
+          <t>/activities/8253417292</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -20141,14 +20141,14 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:10:53</t>
         </is>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -20194,14 +20194,14 @@
       </c>
       <c r="W225" t="inlineStr">
         <is>
-          <t>Afternoon Activity</t>
+          <t>Evening Activity</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>/activities/8253417292</t>
+          <t>/activities/8253172792</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -20230,14 +20230,14 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>0:10:53</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
       </c>
       <c r="W226" t="inlineStr">
         <is>
-          <t>Evening Activity</t>
+          <t>Afternoon Activity</t>
         </is>
       </c>
     </row>
@@ -23276,7 +23276,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>/activities/8236940421</t>
+          <t>/activities/8235513406</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -23301,18 +23301,18 @@
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:00:43</t>
         </is>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
       <c r="J261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -23320,13 +23320,13 @@
         </is>
       </c>
       <c r="L261" t="n">
-        <v>5.4</v>
+        <v>6.45</v>
       </c>
       <c r="M261" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N261" t="n">
-        <v>5.4</v>
+        <v>26.45</v>
       </c>
       <c r="O261" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>0</v>
       </c>
       <c r="Q261" t="n">
-        <v>10.8</v>
+        <v>52.9</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="T261" t="n">
         <v>0</v>
@@ -23361,7 +23361,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>/activities/8235513406</t>
+          <t>/activities/8236940421</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -23386,18 +23386,18 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>0:00:43</t>
+          <t>0:02:13</t>
         </is>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
       <c r="J262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -23405,13 +23405,13 @@
         </is>
       </c>
       <c r="L262" t="n">
-        <v>6.45</v>
+        <v>5.4</v>
       </c>
       <c r="M262" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N262" t="n">
-        <v>26.45</v>
+        <v>5.4</v>
       </c>
       <c r="O262" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="Q262" t="n">
-        <v>52.9</v>
+        <v>10.8</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="U262" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="V262" t="b">
         <v>0</v>
@@ -23802,7 +23802,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>/activities/8251063495</t>
+          <t>/activities/8251059412</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -23824,21 +23824,21 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>0:00:29</t>
         </is>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -23846,13 +23846,13 @@
         </is>
       </c>
       <c r="L267" t="n">
-        <v>9.65</v>
+        <v>8.25</v>
       </c>
       <c r="M267" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N267" t="n">
-        <v>29.65</v>
+        <v>8.25</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>0</v>
       </c>
       <c r="Q267" t="n">
-        <v>29.65</v>
+        <v>8.25</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>10.03</v>
+        <v>9.75</v>
       </c>
       <c r="T267" t="n">
         <v>6</v>
@@ -23884,14 +23884,14 @@
       </c>
       <c r="W267" t="inlineStr">
         <is>
-          <t>Afternoon Walk</t>
+          <t>Morning Walk · Bengaluru, India</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>/activities/8251059412</t>
+          <t>/activities/8251063495</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -23913,21 +23913,21 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>0:00:29</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
       <c r="J268" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -23935,13 +23935,13 @@
         </is>
       </c>
       <c r="L268" t="n">
-        <v>8.25</v>
+        <v>9.65</v>
       </c>
       <c r="M268" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N268" t="n">
-        <v>8.25</v>
+        <v>29.65</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="Q268" t="n">
-        <v>8.25</v>
+        <v>29.65</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -23966,14 +23966,14 @@
         <v>7</v>
       </c>
       <c r="U268" t="n">
-        <v>10.03</v>
+        <v>9.75</v>
       </c>
       <c r="V268" t="b">
         <v>0</v>
       </c>
       <c r="W268" t="inlineStr">
         <is>
-          <t>Morning Walk · Bengaluru, India</t>
+          <t>Afternoon Walk</t>
         </is>
       </c>
     </row>
@@ -26428,7 +26428,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>/activities/8229857694</t>
+          <t>/activities/8231508220</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -26453,18 +26453,18 @@
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>4.16</v>
+        <v>3.36</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>00:40:42</t>
+          <t>00:34:03</t>
         </is>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
       <c r="J297" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -26472,13 +26472,13 @@
         </is>
       </c>
       <c r="L297" t="n">
-        <v>20.8</v>
+        <v>16.8</v>
       </c>
       <c r="M297" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N297" t="n">
-        <v>40.8</v>
+        <v>16.8</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>0</v>
       </c>
       <c r="Q297" t="n">
-        <v>122.4</v>
+        <v>50.40000000000001</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>4.16</v>
+        <v>3.36</v>
       </c>
       <c r="T297" t="n">
         <v>0</v>
@@ -26513,7 +26513,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>/activities/8231508220</t>
+          <t>/activities/8229857694</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -26538,18 +26538,18 @@
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>3.36</v>
+        <v>4.16</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>00:34:03</t>
+          <t>00:40:42</t>
         </is>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
       <c r="J298" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -26557,13 +26557,13 @@
         </is>
       </c>
       <c r="L298" t="n">
-        <v>16.8</v>
+        <v>20.8</v>
       </c>
       <c r="M298" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N298" t="n">
-        <v>16.8</v>
+        <v>40.8</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>0</v>
       </c>
       <c r="Q298" t="n">
-        <v>50.40000000000001</v>
+        <v>122.4</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>1</v>
       </c>
       <c r="U298" t="n">
-        <v>4.16</v>
+        <v>3.36</v>
       </c>
       <c r="V298" t="b">
         <v>0</v>
@@ -27654,7 +27654,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>/activities/8229658114</t>
+          <t>/activities/8230253019</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -27679,18 +27679,18 @@
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>5.6</v>
+        <v>3.33</v>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>01:10:00</t>
+          <t>00:35:37</t>
         </is>
       </c>
       <c r="I311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -27698,13 +27698,13 @@
         </is>
       </c>
       <c r="L311" t="n">
-        <v>28</v>
+        <v>16.65</v>
       </c>
       <c r="M311" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N311" t="n">
-        <v>48</v>
+        <v>16.65</v>
       </c>
       <c r="O311" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="Q311" t="n">
-        <v>144</v>
+        <v>49.95</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>5.6</v>
+        <v>3.33</v>
       </c>
       <c r="T311" t="n">
         <v>0</v>
@@ -27739,7 +27739,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>/activities/8230253019</t>
+          <t>/activities/8229658114</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -27764,18 +27764,18 @@
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>3.33</v>
+        <v>5.6</v>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>00:35:37</t>
+          <t>01:10:00</t>
         </is>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J312" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -27783,13 +27783,13 @@
         </is>
       </c>
       <c r="L312" t="n">
-        <v>16.65</v>
+        <v>28</v>
       </c>
       <c r="M312" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N312" t="n">
-        <v>16.65</v>
+        <v>48</v>
       </c>
       <c r="O312" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>0</v>
       </c>
       <c r="Q312" t="n">
-        <v>49.95</v>
+        <v>144</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>1</v>
       </c>
       <c r="U312" t="n">
-        <v>5.6</v>
+        <v>3.33</v>
       </c>
       <c r="V312" t="b">
         <v>0</v>
@@ -27824,7 +27824,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>/activities/8233887608</t>
+          <t>/activities/8234009514</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -27846,21 +27846,21 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G313" t="n">
-        <v>3.02</v>
+        <v>5.71</v>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>00:40:32</t>
+          <t>01:11:00</t>
         </is>
       </c>
       <c r="I313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J313" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -27868,13 +27868,13 @@
         </is>
       </c>
       <c r="L313" t="n">
-        <v>15.1</v>
+        <v>28.55</v>
       </c>
       <c r="M313" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N313" t="n">
-        <v>15.1</v>
+        <v>48.55</v>
       </c>
       <c r="O313" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>0</v>
       </c>
       <c r="Q313" t="n">
-        <v>30.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -27893,7 +27893,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>11.95</v>
+        <v>14.64</v>
       </c>
       <c r="T313" t="n">
         <v>2</v>
@@ -27909,7 +27909,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>/activities/8234009514</t>
+          <t>/activities/8233887608</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -27931,21 +27931,21 @@
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>5.71</v>
+        <v>3.02</v>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>01:11:00</t>
+          <t>00:40:32</t>
         </is>
       </c>
       <c r="I314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -27953,13 +27953,13 @@
         </is>
       </c>
       <c r="L314" t="n">
-        <v>28.55</v>
+        <v>15.1</v>
       </c>
       <c r="M314" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N314" t="n">
-        <v>48.55</v>
+        <v>15.1</v>
       </c>
       <c r="O314" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>0</v>
       </c>
       <c r="Q314" t="n">
-        <v>97.09999999999999</v>
+        <v>30.2</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>3</v>
       </c>
       <c r="U314" t="n">
-        <v>11.95</v>
+        <v>14.64</v>
       </c>
       <c r="V314" t="b">
         <v>0</v>
@@ -30972,7 +30972,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>/activities/8241135535</t>
+          <t>/activities/8238774626</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -30994,14 +30994,14 @@
         </is>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G349" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>0:14:22</t>
+          <t>0:14:17</t>
         </is>
       </c>
       <c r="I349" t="n">
@@ -31016,13 +31016,13 @@
         </is>
       </c>
       <c r="L349" t="n">
-        <v>6.5</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="M349" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N349" t="n">
-        <v>6.5</v>
+        <v>26.85</v>
       </c>
       <c r="O349" t="inlineStr">
         <is>
@@ -31033,7 +31033,7 @@
         <v>0</v>
       </c>
       <c r="Q349" t="n">
-        <v>6.5</v>
+        <v>26.85</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="T349" t="n">
         <v>0</v>
@@ -31054,14 +31054,14 @@
       </c>
       <c r="W349" t="inlineStr">
         <is>
-          <t>Evening Walk · District of Bratislava I, Region of Bratislava</t>
+          <t>Morning Walk · District of Bratislava I, Region of Bratislava</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>/activities/8238774626</t>
+          <t>/activities/8241135535</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -31083,14 +31083,14 @@
         </is>
       </c>
       <c r="F350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>0:14:17</t>
+          <t>0:14:22</t>
         </is>
       </c>
       <c r="I350" t="n">
@@ -31105,13 +31105,13 @@
         </is>
       </c>
       <c r="L350" t="n">
-        <v>6.850000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="M350" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N350" t="n">
-        <v>26.85</v>
+        <v>6.5</v>
       </c>
       <c r="O350" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>0</v>
       </c>
       <c r="Q350" t="n">
-        <v>26.85</v>
+        <v>6.5</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -31136,14 +31136,14 @@
         <v>1</v>
       </c>
       <c r="U350" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="V350" t="b">
         <v>0</v>
       </c>
       <c r="W350" t="inlineStr">
         <is>
-          <t>Morning Walk · District of Bratislava I, Region of Bratislava</t>
+          <t>Evening Walk · District of Bratislava I, Region of Bratislava</t>
         </is>
       </c>
     </row>
@@ -32631,7 +32631,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>/activities/8241752467</t>
+          <t>/activities/8241951332</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -32653,21 +32653,21 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G368" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>0:02:11</t>
+          <t>1:30:00</t>
         </is>
       </c>
       <c r="I368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J368" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -32675,13 +32675,13 @@
         </is>
       </c>
       <c r="L368" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M368" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N368" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O368" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>0</v>
       </c>
       <c r="Q368" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="T368" t="n">
         <v>0</v>
@@ -32720,7 +32720,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>/activities/8241951332</t>
+          <t>/activities/8241752467</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -32742,21 +32742,21 @@
         </is>
       </c>
       <c r="F369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>1:30:00</t>
+          <t>0:02:11</t>
         </is>
       </c>
       <c r="I369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J369" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -32764,13 +32764,13 @@
         </is>
       </c>
       <c r="L369" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M369" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N369" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O369" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>0</v>
       </c>
       <c r="Q369" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>1</v>
       </c>
       <c r="U369" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="V369" t="b">
         <v>0</v>
@@ -33420,7 +33420,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>/activities/8235116308</t>
+          <t>/activities/8237318233</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -33442,21 +33442,21 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G377" t="n">
-        <v>1.14</v>
+        <v>3.69</v>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>0:46:28</t>
+          <t>0:50:31</t>
         </is>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
       <c r="J377" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -33464,13 +33464,13 @@
         </is>
       </c>
       <c r="L377" t="n">
-        <v>5.699999999999999</v>
+        <v>18.45</v>
       </c>
       <c r="M377" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N377" t="n">
-        <v>5.699999999999999</v>
+        <v>38.45</v>
       </c>
       <c r="O377" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>0</v>
       </c>
       <c r="Q377" t="n">
-        <v>11.4</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1.27</v>
+        <v>3.82</v>
       </c>
       <c r="T377" t="n">
         <v>1</v>
@@ -33505,7 +33505,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>/activities/8237318233</t>
+          <t>/activities/8235116308</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -33527,21 +33527,21 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>3.69</v>
+        <v>1.14</v>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>0:50:31</t>
+          <t>0:46:28</t>
         </is>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
       <c r="J378" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -33549,13 +33549,13 @@
         </is>
       </c>
       <c r="L378" t="n">
-        <v>18.45</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="M378" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N378" t="n">
-        <v>38.45</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="O378" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>0</v>
       </c>
       <c r="Q378" t="n">
-        <v>76.90000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -33574,13 +33574,13 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>4.959999999999999</v>
+        <v>4.96</v>
       </c>
       <c r="T378" t="n">
         <v>2</v>
       </c>
       <c r="U378" t="n">
-        <v>1.27</v>
+        <v>3.82</v>
       </c>
       <c r="V378" t="b">
         <v>0</v>
@@ -33665,7 +33665,7 @@
         <v>3</v>
       </c>
       <c r="U379" t="n">
-        <v>4.959999999999999</v>
+        <v>4.96</v>
       </c>
       <c r="V379" t="b">
         <v>0</v>
@@ -33946,7 +33946,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>/activities/8249538691</t>
+          <t>/activities/8249931444</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -33975,14 +33975,14 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>0:31:52</t>
+          <t>0:40:54</t>
         </is>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
       <c r="J383" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -34028,14 +34028,14 @@
       </c>
       <c r="W383" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Evening Workout</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>/activities/8249931444</t>
+          <t>/activities/8249538691</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -34064,14 +34064,14 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>0:40:54</t>
+          <t>0:31:52</t>
         </is>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
       <c r="J384" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
       </c>
       <c r="W384" t="inlineStr">
         <is>
-          <t>Evening Workout</t>
+          <t>Cardio</t>
         </is>
       </c>
     </row>
@@ -36469,6 +36469,95 @@
       <c r="W411" t="inlineStr">
         <is>
           <t>Afternoon Hike</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>/activities/8253451061</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Tinku Sand</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Pace Makers</t>
+        </is>
+      </c>
+      <c r="D412" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="F412" t="n">
+        <v>0</v>
+      </c>
+      <c r="G412" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>1:01:00</t>
+        </is>
+      </c>
+      <c r="I412" t="n">
+        <v>1</v>
+      </c>
+      <c r="J412" t="n">
+        <v>1</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="L412" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M412" t="n">
+        <v>20</v>
+      </c>
+      <c r="N412" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P412" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>Run/Walk</t>
+        </is>
+      </c>
+      <c r="S412" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="T412" t="n">
+        <v>0</v>
+      </c>
+      <c r="U412" t="n">
+        <v>0</v>
+      </c>
+      <c r="V412" t="b">
+        <v>0</v>
+      </c>
+      <c r="W412" t="inlineStr">
+        <is>
+          <t>4th day of challenge · Bengaluru, India</t>
         </is>
       </c>
     </row>

--- a/data/data_all.xlsx
+++ b/data/data_all.xlsx
@@ -8212,7 +8212,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>/activities/8236450629</t>
+          <t>/activities/8231713523</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -8241,7 +8241,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>1:03:00</t>
+          <t>01:03:00</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -8297,7 +8297,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>/activities/8231713523</t>
+          <t>/activities/8236450629</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>01:03:00</t>
+          <t>1:03:00</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -12278,7 +12278,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>/activities/8250242879</t>
+          <t>/activities/8247388330</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -12367,7 +12367,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>/activities/8247388330</t>
+          <t>/activities/8250242879</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -24865,7 +24865,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>/activities/8246213937</t>
+          <t>/activities/8248092240</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -24894,14 +24894,14 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>0:46:38</t>
+          <t>0:47:21</t>
         </is>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
       <c r="J278" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -24947,14 +24947,14 @@
       </c>
       <c r="W278" t="inlineStr">
         <is>
-          <t>Day 5 : Morning walk · Bengaluru, India</t>
+          <t>Day 5 : Night walk · Bengaluru, India</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>/activities/8248092240</t>
+          <t>/activities/8246213937</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -24983,14 +24983,14 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>0:47:21</t>
+          <t>0:46:38</t>
         </is>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
       <c r="J279" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
       </c>
       <c r="W279" t="inlineStr">
         <is>
-          <t>Day 5 : Night walk · Bengaluru, India</t>
+          <t>Day 5 : Morning walk · Bengaluru, India</t>
         </is>
       </c>
     </row>
@@ -25399,7 +25399,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>/activities/8257064948</t>
+          <t>/activities/8259265492</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -25428,14 +25428,14 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>00:46:31</t>
+          <t>00:47:28</t>
         </is>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -25481,14 +25481,14 @@
       </c>
       <c r="W284" t="inlineStr">
         <is>
-          <t>Day 8 : Morning walk · Bengaluru, India</t>
+          <t>Day 8 :  Night walk · Bengaluru, India</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>/activities/8259265492</t>
+          <t>/activities/8257064948</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -25517,14 +25517,14 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>00:47:28</t>
+          <t>00:46:31</t>
         </is>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
       </c>
       <c r="W285" t="inlineStr">
         <is>
-          <t>Day 8 :  Night walk · Bengaluru, India</t>
+          <t>Day 8 : Morning walk · Bengaluru, India</t>
         </is>
       </c>
     </row>
@@ -28923,7 +28923,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>/activities/8253172792</t>
+          <t>/activities/8253356745</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -28952,14 +28952,14 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>00:19:36</t>
         </is>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
       <c r="J324" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -29005,14 +29005,14 @@
       </c>
       <c r="W324" t="inlineStr">
         <is>
-          <t>Afternoon Activity</t>
+          <t>Evening Activity</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>/activities/8253356745</t>
+          <t>/activities/8253172792</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -29041,14 +29041,14 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>00:19:36</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
       <c r="J325" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -29094,7 +29094,7 @@
       </c>
       <c r="W325" t="inlineStr">
         <is>
-          <t>Evening Activity</t>
+          <t>Afternoon Activity</t>
         </is>
       </c>
     </row>
@@ -48020,7 +48020,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>/activities/8249931444</t>
+          <t>/activities/8249538691</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -48049,14 +48049,14 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>0:40:54</t>
+          <t>0:31:52</t>
         </is>
       </c>
       <c r="I541" t="n">
         <v>0</v>
       </c>
       <c r="J541" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -48102,14 +48102,14 @@
       </c>
       <c r="W541" t="inlineStr">
         <is>
-          <t>Evening Workout</t>
+          <t>Cardio</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>/activities/8249538691</t>
+          <t>/activities/8249931444</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -48138,14 +48138,14 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>0:31:52</t>
+          <t>0:40:54</t>
         </is>
       </c>
       <c r="I542" t="n">
         <v>0</v>
       </c>
       <c r="J542" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -48191,7 +48191,7 @@
       </c>
       <c r="W542" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Evening Workout</t>
         </is>
       </c>
     </row>
